--- a/BackTesting/xrp.xlsx
+++ b/BackTesting/xrp.xlsx
@@ -429,22 +429,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>44103.375</v>
+        <v>44117.375</v>
       </c>
       <c r="B2">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="C2">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="D2">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="E2">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="F2">
-        <v>46654704.51510271</v>
+        <v>62629913.91878451</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -452,259 +452,259 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
-        <v>44104.375</v>
+        <v>44118.375</v>
       </c>
       <c r="B3">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="C3">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="D3">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E3">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F3">
-        <v>28133173.85878242</v>
+        <v>77524933.66839601</v>
       </c>
       <c r="G3">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="H3">
-        <v>286</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
-        <v>44105.375</v>
+        <v>44119.375</v>
       </c>
       <c r="B4">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C4">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D4">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="E4">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="F4">
-        <v>36897106.06628018</v>
+        <v>59039544.5819393</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>284.5</v>
+        <v>293.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
-        <v>44106.375</v>
+        <v>44120.375</v>
       </c>
       <c r="B5">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C5">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D5">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="E5">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F5">
-        <v>51688484.67456988</v>
+        <v>62597144.56358185</v>
       </c>
       <c r="G5">
         <v>5.5</v>
       </c>
       <c r="H5">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <v>44107.375</v>
+        <v>44121.375</v>
       </c>
       <c r="B6">
+        <v>277</v>
+      </c>
+      <c r="C6">
+        <v>280</v>
+      </c>
+      <c r="D6">
         <v>275</v>
       </c>
-      <c r="C6">
-        <v>277</v>
-      </c>
-      <c r="D6">
-        <v>273</v>
-      </c>
       <c r="E6">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F6">
-        <v>21406841.60434301</v>
+        <v>29678859.90891287</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H6">
-        <v>280.5</v>
+        <v>282.5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
-        <v>44108.375</v>
+        <v>44122.375</v>
       </c>
       <c r="B7">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C7">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="D7">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E7">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="F7">
-        <v>69608401.21815474</v>
+        <v>21521371.34807842</v>
       </c>
       <c r="G7">
-        <v>10.5</v>
+        <v>1.5</v>
       </c>
       <c r="H7">
-        <v>275</v>
+        <v>280.5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
-        <v>44109.375</v>
+        <v>44123.375</v>
       </c>
       <c r="B8">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C8">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="D8">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="E8">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="F8">
-        <v>78871483.91798878</v>
+        <v>46308645.46296362</v>
       </c>
       <c r="G8">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>299.5</v>
+        <v>279.5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2">
-        <v>44110.375</v>
+        <v>44124.375</v>
       </c>
       <c r="B9">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C9">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="D9">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E9">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="F9">
-        <v>122030066.3557563</v>
+        <v>45155194.86544992</v>
       </c>
       <c r="G9">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>296.5</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
-        <v>44111.375</v>
+        <v>44125.375</v>
       </c>
       <c r="B10">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C10">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D10">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E10">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F10">
-        <v>49456415.97653922</v>
+        <v>68397776.55299205</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H10">
-        <v>296.5</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2">
-        <v>44112.375</v>
+        <v>44126.375</v>
       </c>
       <c r="B11">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C11">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D11">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F11">
-        <v>69019451.09934339</v>
+        <v>87672144.58178613</v>
       </c>
       <c r="G11">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="H11">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2">
-        <v>44113.375</v>
+        <v>44127.375</v>
       </c>
       <c r="B12">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C12">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D12">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E12">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F12">
-        <v>71879580.98823529</v>
+        <v>57218692.94375582</v>
       </c>
       <c r="G12">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H12">
         <v>295.5</v>
@@ -712,475 +712,475 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2">
-        <v>44114.375</v>
+        <v>44128.375</v>
       </c>
       <c r="B13">
+        <v>287</v>
+      </c>
+      <c r="C13">
+        <v>290</v>
+      </c>
+      <c r="D13">
+        <v>285</v>
+      </c>
+      <c r="E13">
         <v>289</v>
       </c>
-      <c r="C13">
-        <v>297</v>
-      </c>
-      <c r="D13">
-        <v>288</v>
-      </c>
-      <c r="E13">
-        <v>290</v>
-      </c>
       <c r="F13">
-        <v>74822099.64458676</v>
+        <v>27425851.06008247</v>
       </c>
       <c r="G13">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="H13">
-        <v>293.5</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2">
-        <v>44115.375</v>
+        <v>44129.375</v>
       </c>
       <c r="B14">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C14">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D14">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E14">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F14">
-        <v>42345839.81274522</v>
+        <v>33534922.90513634</v>
       </c>
       <c r="G14">
         <v>3</v>
       </c>
       <c r="H14">
-        <v>293.5</v>
+        <v>290.5</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2">
-        <v>44116.375</v>
+        <v>44130.375</v>
       </c>
       <c r="B15">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C15">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D15">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="E15">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="F15">
-        <v>69259698.78912891</v>
+        <v>57224509.58134078</v>
       </c>
       <c r="G15">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="H15">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2">
-        <v>44117.375</v>
+        <v>44131.375</v>
       </c>
       <c r="B16">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C16">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="D16">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="E16">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="F16">
-        <v>62629913.91878451</v>
+        <v>43890996.77316761</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>296.5</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2">
-        <v>44118.375</v>
+        <v>44132.375</v>
       </c>
       <c r="B17">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C17">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D17">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E17">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F17">
-        <v>77524933.66839601</v>
+        <v>71188579.36025374</v>
       </c>
       <c r="G17">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="H17">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">
-        <v>44119.375</v>
+        <v>44133.375</v>
       </c>
       <c r="B18">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C18">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D18">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E18">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="F18">
-        <v>59039544.5819393</v>
+        <v>46825111.068214</v>
       </c>
       <c r="G18">
         <v>4</v>
       </c>
       <c r="H18">
-        <v>293.5</v>
+        <v>284.5</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2">
-        <v>44120.375</v>
+        <v>44134.375</v>
       </c>
       <c r="B19">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C19">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D19">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="E19">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F19">
-        <v>62597144.56358185</v>
+        <v>62823421.0284382</v>
       </c>
       <c r="G19">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="H19">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2">
-        <v>44121.375</v>
+        <v>44135.375</v>
       </c>
       <c r="B20">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C20">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D20">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E20">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F20">
-        <v>29678859.90891287</v>
+        <v>28300885.24070128</v>
       </c>
       <c r="G20">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H20">
-        <v>282.5</v>
+        <v>276.5</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2">
-        <v>44122.375</v>
+        <v>44136.375</v>
       </c>
       <c r="B21">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C21">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D21">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E21">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F21">
-        <v>21521371.34807842</v>
+        <v>21746789.98560572</v>
       </c>
       <c r="G21">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>280.5</v>
+        <v>274.5</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2">
-        <v>44123.375</v>
+        <v>44137.375</v>
       </c>
       <c r="B22">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C22">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D22">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="E22">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="F22">
-        <v>46308645.46296362</v>
+        <v>47272754.00046283</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H22">
-        <v>279.5</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2">
-        <v>44124.375</v>
+        <v>44138.375</v>
       </c>
       <c r="B23">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="C23">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D23">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="E23">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F23">
-        <v>45155194.86544992</v>
+        <v>84141545.54905055</v>
       </c>
       <c r="G23">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="H23">
-        <v>286</v>
+        <v>272.5</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2">
-        <v>44125.375</v>
+        <v>44139.375</v>
       </c>
       <c r="B24">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C24">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D24">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="E24">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="F24">
-        <v>68397776.55299205</v>
+        <v>49200984.69095993</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H24">
-        <v>282</v>
+        <v>280.5</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2">
-        <v>44126.375</v>
+        <v>44140.375</v>
       </c>
       <c r="B25">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="C25">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="D25">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="E25">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="F25">
-        <v>87672144.58178613</v>
+        <v>71948710.13819855</v>
       </c>
       <c r="G25">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="H25">
-        <v>288</v>
+        <v>273.5</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2">
-        <v>44127.375</v>
+        <v>44141.375</v>
       </c>
       <c r="B26">
+        <v>273</v>
+      </c>
+      <c r="C26">
+        <v>291</v>
+      </c>
+      <c r="D26">
+        <v>272</v>
+      </c>
+      <c r="E26">
         <v>289</v>
       </c>
-      <c r="C26">
-        <v>292</v>
-      </c>
-      <c r="D26">
-        <v>284</v>
-      </c>
-      <c r="E26">
-        <v>287</v>
-      </c>
       <c r="F26">
-        <v>57218692.94375582</v>
+        <v>111382986.883304</v>
       </c>
       <c r="G26">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="H26">
-        <v>295.5</v>
+        <v>277.5</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2">
-        <v>44128.375</v>
+        <v>44142.375</v>
       </c>
       <c r="B27">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C27">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D27">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E27">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F27">
-        <v>27425851.06008247</v>
+        <v>129278774.0273353</v>
       </c>
       <c r="G27">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="H27">
-        <v>291</v>
+        <v>298.5</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2">
-        <v>44129.375</v>
+        <v>44143.375</v>
       </c>
       <c r="B28">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C28">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D28">
+        <v>278</v>
+      </c>
+      <c r="E28">
         <v>284</v>
       </c>
-      <c r="E28">
-        <v>286</v>
-      </c>
       <c r="F28">
-        <v>33534922.90513634</v>
+        <v>56956900.93826745</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="H28">
-        <v>290.5</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2">
-        <v>44130.375</v>
+        <v>44144.375</v>
       </c>
       <c r="B29">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C29">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D29">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E29">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F29">
-        <v>57224509.58134078</v>
+        <v>66529587.65482037</v>
       </c>
       <c r="G29">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H29">
-        <v>288</v>
+        <v>288.5</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2">
-        <v>44131.375</v>
+        <v>44145.375</v>
       </c>
       <c r="B30">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C30">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="D30">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E30">
+        <v>283</v>
+      </c>
+      <c r="F30">
+        <v>114930766.8486964</v>
+      </c>
+      <c r="G30">
+        <v>9</v>
+      </c>
+      <c r="H30">
         <v>284</v>
-      </c>
-      <c r="F30">
-        <v>43890996.77316761</v>
-      </c>
-      <c r="G30">
-        <v>3</v>
-      </c>
-      <c r="H30">
-        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2">
-        <v>44132.375</v>
+        <v>44146.375</v>
       </c>
       <c r="B31">
         <v>283</v>
@@ -1189,4439 +1189,4439 @@
         <v>288</v>
       </c>
       <c r="D31">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E31">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F31">
-        <v>71188579.36025374</v>
+        <v>71337744.89262849</v>
       </c>
       <c r="G31">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="H31">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2">
-        <v>44133.375</v>
+        <v>44147.375</v>
       </c>
       <c r="B32">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C32">
+        <v>286</v>
+      </c>
+      <c r="D32">
         <v>280</v>
       </c>
-      <c r="D32">
-        <v>272</v>
-      </c>
       <c r="E32">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="F32">
-        <v>46825111.068214</v>
+        <v>49222596.83624766</v>
       </c>
       <c r="G32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H32">
-        <v>284.5</v>
+        <v>288.5</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2">
-        <v>44134.375</v>
+        <v>44148.375</v>
       </c>
       <c r="B33">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C33">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="D33">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="E33">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="F33">
-        <v>62823421.0284382</v>
+        <v>70907640.69432221</v>
       </c>
       <c r="G33">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="H33">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2">
-        <v>44135.375</v>
+        <v>44149.375</v>
       </c>
       <c r="B34">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="C34">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="D34">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="E34">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="F34">
-        <v>28300885.24070128</v>
+        <v>144260259.0504451</v>
       </c>
       <c r="G34">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="H34">
-        <v>276.5</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2">
-        <v>44136.375</v>
+        <v>44150.375</v>
       </c>
       <c r="B35">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="C35">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="D35">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="E35">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="F35">
-        <v>21746789.98560572</v>
+        <v>103642661.4714493</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="H35">
-        <v>274.5</v>
+        <v>304.5</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2">
-        <v>44137.375</v>
+        <v>44151.375</v>
       </c>
       <c r="B36">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="C36">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="D36">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="E36">
-        <v>267</v>
+        <v>314</v>
       </c>
       <c r="F36">
-        <v>47272754.00046283</v>
+        <v>135235846.3300969</v>
       </c>
       <c r="G36">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="H36">
-        <v>274</v>
+        <v>305.5</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2">
-        <v>44138.375</v>
+        <v>44152.375</v>
       </c>
       <c r="B37">
-        <v>267</v>
+        <v>315</v>
       </c>
       <c r="C37">
-        <v>277</v>
+        <v>334</v>
       </c>
       <c r="D37">
-        <v>260</v>
+        <v>314</v>
       </c>
       <c r="E37">
-        <v>271</v>
+        <v>331</v>
       </c>
       <c r="F37">
-        <v>84141545.54905055</v>
+        <v>215998074.9306044</v>
       </c>
       <c r="G37">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="H37">
-        <v>272.5</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2">
-        <v>44139.375</v>
+        <v>44153.375</v>
       </c>
       <c r="B38">
-        <v>272</v>
+        <v>331</v>
       </c>
       <c r="C38">
-        <v>273</v>
+        <v>339</v>
       </c>
       <c r="D38">
-        <v>264</v>
+        <v>311</v>
       </c>
       <c r="E38">
-        <v>268</v>
+        <v>326</v>
       </c>
       <c r="F38">
-        <v>49200984.69095993</v>
+        <v>234915017.3477963</v>
       </c>
       <c r="G38">
-        <v>4.5</v>
+        <v>14</v>
       </c>
       <c r="H38">
-        <v>280.5</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2">
-        <v>44140.375</v>
+        <v>44154.375</v>
       </c>
       <c r="B39">
-        <v>269</v>
+        <v>325</v>
       </c>
       <c r="C39">
-        <v>276</v>
+        <v>339</v>
       </c>
       <c r="D39">
-        <v>267</v>
+        <v>317</v>
       </c>
       <c r="E39">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="F39">
-        <v>71948710.13819855</v>
+        <v>171845137.5170558</v>
       </c>
       <c r="G39">
-        <v>4.5</v>
+        <v>11</v>
       </c>
       <c r="H39">
-        <v>273.5</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2">
-        <v>44141.375</v>
+        <v>44155.375</v>
       </c>
       <c r="B40">
-        <v>273</v>
+        <v>337</v>
       </c>
       <c r="C40">
-        <v>291</v>
+        <v>366</v>
       </c>
       <c r="D40">
-        <v>272</v>
+        <v>331</v>
       </c>
       <c r="E40">
-        <v>289</v>
+        <v>364</v>
       </c>
       <c r="F40">
-        <v>111382986.883304</v>
+        <v>239905434.4585714</v>
       </c>
       <c r="G40">
-        <v>9.5</v>
+        <v>17.5</v>
       </c>
       <c r="H40">
-        <v>277.5</v>
+        <v>348</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2">
-        <v>44142.375</v>
+        <v>44156.375</v>
       </c>
       <c r="B41">
-        <v>289</v>
+        <v>365</v>
       </c>
       <c r="C41">
-        <v>299</v>
+        <v>508</v>
       </c>
       <c r="D41">
-        <v>277</v>
+        <v>363</v>
       </c>
       <c r="E41">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="F41">
-        <v>129278774.0273353</v>
+        <v>1178772839.097765</v>
       </c>
       <c r="G41">
-        <v>11</v>
+        <v>72.5</v>
       </c>
       <c r="H41">
-        <v>298.5</v>
+        <v>382.5</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2">
-        <v>44143.375</v>
+        <v>44157.375</v>
       </c>
       <c r="B42">
-        <v>280</v>
+        <v>501</v>
       </c>
       <c r="C42">
-        <v>287</v>
+        <v>543</v>
       </c>
       <c r="D42">
-        <v>278</v>
+        <v>440</v>
       </c>
       <c r="E42">
-        <v>284</v>
+        <v>494</v>
       </c>
       <c r="F42">
-        <v>56956900.93826745</v>
+        <v>1326960760.328895</v>
       </c>
       <c r="G42">
-        <v>4.5</v>
+        <v>51.5</v>
       </c>
       <c r="H42">
-        <v>291</v>
+        <v>573.5</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2">
-        <v>44144.375</v>
+        <v>44158.375</v>
       </c>
       <c r="B43">
-        <v>284</v>
+        <v>494</v>
       </c>
       <c r="C43">
-        <v>286</v>
+        <v>677</v>
       </c>
       <c r="D43">
-        <v>276</v>
+        <v>478</v>
       </c>
       <c r="E43">
-        <v>279</v>
+        <v>673</v>
       </c>
       <c r="F43">
-        <v>66529587.65482037</v>
+        <v>1243531291.874143</v>
       </c>
       <c r="G43">
-        <v>5</v>
+        <v>99.5</v>
       </c>
       <c r="H43">
-        <v>288.5</v>
+        <v>545.5</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2">
-        <v>44145.375</v>
+        <v>44159.375</v>
       </c>
       <c r="B44">
-        <v>279</v>
+        <v>673</v>
       </c>
       <c r="C44">
-        <v>295</v>
+        <v>859</v>
       </c>
       <c r="D44">
-        <v>277</v>
+        <v>633</v>
       </c>
       <c r="E44">
-        <v>283</v>
+        <v>758</v>
       </c>
       <c r="F44">
-        <v>114930766.8486964</v>
+        <v>1883666726.103591</v>
       </c>
       <c r="G44">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="H44">
-        <v>284</v>
+        <v>772.5</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2">
-        <v>44146.375</v>
+        <v>44160.375</v>
       </c>
       <c r="B45">
-        <v>283</v>
+        <v>758</v>
       </c>
       <c r="C45">
-        <v>288</v>
+        <v>786</v>
       </c>
       <c r="D45">
-        <v>281</v>
+        <v>670</v>
       </c>
       <c r="E45">
-        <v>285</v>
+        <v>702</v>
       </c>
       <c r="F45">
-        <v>71337744.89262849</v>
+        <v>823209480.7185785</v>
       </c>
       <c r="G45">
-        <v>3.5</v>
+        <v>58</v>
       </c>
       <c r="H45">
-        <v>292</v>
+        <v>871</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2">
-        <v>44147.375</v>
+        <v>44161.375</v>
       </c>
       <c r="B46">
-        <v>285</v>
+        <v>702</v>
       </c>
       <c r="C46">
-        <v>286</v>
+        <v>723</v>
       </c>
       <c r="D46">
-        <v>280</v>
+        <v>524</v>
       </c>
       <c r="E46">
-        <v>282</v>
+        <v>600</v>
       </c>
       <c r="F46">
-        <v>49222596.83624766</v>
+        <v>1706453366.220936</v>
       </c>
       <c r="G46">
-        <v>3</v>
+        <v>99.5</v>
       </c>
       <c r="H46">
-        <v>288.5</v>
+        <v>760</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2">
-        <v>44148.375</v>
+        <v>44162.375</v>
       </c>
       <c r="B47">
-        <v>282</v>
+        <v>600</v>
       </c>
       <c r="C47">
-        <v>293</v>
+        <v>657</v>
       </c>
       <c r="D47">
-        <v>281</v>
+        <v>562</v>
       </c>
       <c r="E47">
-        <v>293</v>
+        <v>627</v>
       </c>
       <c r="F47">
-        <v>70907640.69432221</v>
+        <v>1029245284.962242</v>
       </c>
       <c r="G47">
-        <v>6</v>
+        <v>47.5</v>
       </c>
       <c r="H47">
-        <v>285</v>
+        <v>699.5</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2">
-        <v>44149.375</v>
+        <v>44163.375</v>
       </c>
       <c r="B48">
-        <v>292</v>
+        <v>627</v>
       </c>
       <c r="C48">
-        <v>305</v>
+        <v>710</v>
       </c>
       <c r="D48">
-        <v>290</v>
+        <v>606</v>
       </c>
       <c r="E48">
-        <v>297</v>
+        <v>688</v>
       </c>
       <c r="F48">
-        <v>144260259.0504451</v>
+        <v>812470601.8230383</v>
       </c>
       <c r="G48">
-        <v>7.5</v>
+        <v>52</v>
       </c>
       <c r="H48">
-        <v>298</v>
+        <v>674.5</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2">
-        <v>44150.375</v>
+        <v>44164.375</v>
       </c>
       <c r="B49">
-        <v>297</v>
+        <v>688</v>
       </c>
       <c r="C49">
-        <v>307</v>
+        <v>700</v>
       </c>
       <c r="D49">
-        <v>294</v>
+        <v>647</v>
       </c>
       <c r="E49">
-        <v>299</v>
+        <v>665</v>
       </c>
       <c r="F49">
-        <v>103642661.4714493</v>
+        <v>495092680.3983105</v>
       </c>
       <c r="G49">
-        <v>6.5</v>
+        <v>26.5</v>
       </c>
       <c r="H49">
-        <v>304.5</v>
+        <v>740</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2">
-        <v>44151.375</v>
+        <v>44165.375</v>
       </c>
       <c r="B50">
-        <v>299</v>
+        <v>666</v>
       </c>
       <c r="C50">
-        <v>317</v>
+        <v>730</v>
       </c>
       <c r="D50">
-        <v>295</v>
+        <v>658</v>
       </c>
       <c r="E50">
-        <v>314</v>
+        <v>720</v>
       </c>
       <c r="F50">
-        <v>135235846.3300969</v>
+        <v>632951349.7899145</v>
       </c>
       <c r="G50">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H50">
-        <v>305.5</v>
+        <v>692.5</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2">
-        <v>44152.375</v>
+        <v>44166.375</v>
       </c>
       <c r="B51">
-        <v>315</v>
+        <v>720</v>
       </c>
       <c r="C51">
-        <v>334</v>
+        <v>742</v>
       </c>
       <c r="D51">
-        <v>314</v>
+        <v>662</v>
       </c>
       <c r="E51">
-        <v>331</v>
+        <v>681</v>
       </c>
       <c r="F51">
-        <v>215998074.9306044</v>
+        <v>683947632.6428695</v>
       </c>
       <c r="G51">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H51">
-        <v>326</v>
+        <v>756</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2">
-        <v>44153.375</v>
+        <v>44167.375</v>
       </c>
       <c r="B52">
-        <v>331</v>
+        <v>681</v>
       </c>
       <c r="C52">
-        <v>339</v>
+        <v>697</v>
       </c>
       <c r="D52">
-        <v>311</v>
+        <v>661</v>
       </c>
       <c r="E52">
-        <v>326</v>
+        <v>691</v>
       </c>
       <c r="F52">
-        <v>234915017.3477963</v>
+        <v>266777247.2240764</v>
       </c>
       <c r="G52">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H52">
-        <v>341</v>
+        <v>721</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2">
-        <v>44154.375</v>
+        <v>44168.375</v>
       </c>
       <c r="B53">
-        <v>325</v>
+        <v>691</v>
       </c>
       <c r="C53">
-        <v>339</v>
+        <v>699</v>
       </c>
       <c r="D53">
-        <v>317</v>
+        <v>675</v>
       </c>
       <c r="E53">
-        <v>338</v>
+        <v>687</v>
       </c>
       <c r="F53">
-        <v>171845137.5170558</v>
+        <v>169194576.4917351</v>
       </c>
       <c r="G53">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H53">
-        <v>339</v>
+        <v>709</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2">
-        <v>44155.375</v>
+        <v>44169.375</v>
       </c>
       <c r="B54">
-        <v>337</v>
+        <v>687</v>
       </c>
       <c r="C54">
-        <v>366</v>
+        <v>691</v>
       </c>
       <c r="D54">
-        <v>331</v>
+        <v>597</v>
       </c>
       <c r="E54">
-        <v>364</v>
+        <v>612</v>
       </c>
       <c r="F54">
-        <v>239905434.4585714</v>
+        <v>391777275.4065453</v>
       </c>
       <c r="G54">
-        <v>17.5</v>
+        <v>47</v>
       </c>
       <c r="H54">
-        <v>348</v>
+        <v>699</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2">
-        <v>44156.375</v>
+        <v>44170.375</v>
       </c>
       <c r="B55">
-        <v>365</v>
+        <v>612</v>
       </c>
       <c r="C55">
-        <v>508</v>
+        <v>653</v>
       </c>
       <c r="D55">
-        <v>363</v>
+        <v>603</v>
       </c>
       <c r="E55">
-        <v>500</v>
+        <v>635</v>
       </c>
       <c r="F55">
-        <v>1178772839.097765</v>
+        <v>265793473.7651066</v>
       </c>
       <c r="G55">
-        <v>72.5</v>
+        <v>25</v>
       </c>
       <c r="H55">
-        <v>382.5</v>
+        <v>659</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2">
-        <v>44157.375</v>
+        <v>44171.375</v>
       </c>
       <c r="B56">
-        <v>501</v>
+        <v>635</v>
       </c>
       <c r="C56">
-        <v>543</v>
+        <v>681</v>
       </c>
       <c r="D56">
-        <v>440</v>
+        <v>632</v>
       </c>
       <c r="E56">
-        <v>494</v>
+        <v>673</v>
       </c>
       <c r="F56">
-        <v>1326960760.328895</v>
+        <v>369768900.9478307</v>
       </c>
       <c r="G56">
-        <v>51.5</v>
+        <v>24.5</v>
       </c>
       <c r="H56">
-        <v>573.5</v>
+        <v>660</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2">
-        <v>44158.375</v>
+        <v>44172.375</v>
       </c>
       <c r="B57">
-        <v>494</v>
+        <v>674</v>
       </c>
       <c r="C57">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D57">
-        <v>478</v>
+        <v>648</v>
       </c>
       <c r="E57">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="F57">
-        <v>1243531291.874143</v>
+        <v>152042725.4128784</v>
       </c>
       <c r="G57">
-        <v>99.5</v>
+        <v>14</v>
       </c>
       <c r="H57">
-        <v>545.5</v>
+        <v>698.5</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2">
-        <v>44159.375</v>
+        <v>44173.375</v>
       </c>
       <c r="B58">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="C58">
-        <v>859</v>
+        <v>667</v>
       </c>
       <c r="D58">
-        <v>633</v>
+        <v>601</v>
       </c>
       <c r="E58">
-        <v>758</v>
+        <v>612</v>
       </c>
       <c r="F58">
-        <v>1883666726.103591</v>
+        <v>264933493.4168682</v>
       </c>
       <c r="G58">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="H58">
-        <v>772.5</v>
+        <v>676</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="2">
-        <v>44160.375</v>
+        <v>44174.375</v>
       </c>
       <c r="B59">
-        <v>758</v>
+        <v>612</v>
       </c>
       <c r="C59">
-        <v>786</v>
+        <v>655</v>
       </c>
       <c r="D59">
-        <v>670</v>
+        <v>552</v>
       </c>
       <c r="E59">
-        <v>702</v>
+        <v>637</v>
       </c>
       <c r="F59">
-        <v>823209480.7185785</v>
+        <v>720299524.9973058</v>
       </c>
       <c r="G59">
-        <v>58</v>
+        <v>51.5</v>
       </c>
       <c r="H59">
-        <v>871</v>
+        <v>645</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2">
-        <v>44161.375</v>
+        <v>44175.375</v>
       </c>
       <c r="B60">
-        <v>702</v>
+        <v>638</v>
       </c>
       <c r="C60">
-        <v>723</v>
+        <v>644</v>
       </c>
       <c r="D60">
-        <v>524</v>
+        <v>609</v>
       </c>
       <c r="E60">
-        <v>600</v>
+        <v>626</v>
       </c>
       <c r="F60">
-        <v>1706453366.220936</v>
+        <v>377054012.1788579</v>
       </c>
       <c r="G60">
-        <v>99.5</v>
+        <v>17.5</v>
       </c>
       <c r="H60">
-        <v>760</v>
+        <v>689.5</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2">
-        <v>44162.375</v>
+        <v>44176.375</v>
       </c>
       <c r="B61">
-        <v>600</v>
+        <v>626</v>
       </c>
       <c r="C61">
-        <v>657</v>
+        <v>629</v>
       </c>
       <c r="D61">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="E61">
-        <v>627</v>
+        <v>581</v>
       </c>
       <c r="F61">
-        <v>1029245284.962242</v>
+        <v>480825461.6277264</v>
       </c>
       <c r="G61">
-        <v>47.5</v>
+        <v>31</v>
       </c>
       <c r="H61">
-        <v>699.5</v>
+        <v>643.5</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2">
-        <v>44163.375</v>
+        <v>44177.375</v>
       </c>
       <c r="B62">
-        <v>627</v>
+        <v>582</v>
       </c>
       <c r="C62">
-        <v>710</v>
+        <v>593</v>
       </c>
       <c r="D62">
-        <v>606</v>
+        <v>530</v>
       </c>
       <c r="E62">
-        <v>688</v>
+        <v>555</v>
       </c>
       <c r="F62">
-        <v>812470601.8230383</v>
+        <v>550612538.7971232</v>
       </c>
       <c r="G62">
-        <v>52</v>
+        <v>31.5</v>
       </c>
       <c r="H62">
-        <v>674.5</v>
+        <v>613</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2">
-        <v>44164.375</v>
+        <v>44178.375</v>
       </c>
       <c r="B63">
-        <v>688</v>
+        <v>554</v>
       </c>
       <c r="C63">
-        <v>700</v>
+        <v>574</v>
       </c>
       <c r="D63">
-        <v>647</v>
+        <v>533</v>
       </c>
       <c r="E63">
-        <v>665</v>
+        <v>557</v>
       </c>
       <c r="F63">
-        <v>495092680.3983105</v>
+        <v>278501235.8181894</v>
       </c>
       <c r="G63">
-        <v>26.5</v>
+        <v>20.5</v>
       </c>
       <c r="H63">
-        <v>740</v>
+        <v>585.5</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2">
-        <v>44165.375</v>
+        <v>44179.375</v>
       </c>
       <c r="B64">
-        <v>666</v>
+        <v>557</v>
       </c>
       <c r="C64">
-        <v>730</v>
+        <v>563</v>
       </c>
       <c r="D64">
-        <v>658</v>
+        <v>535</v>
       </c>
       <c r="E64">
-        <v>720</v>
+        <v>540</v>
       </c>
       <c r="F64">
-        <v>632951349.7899145</v>
+        <v>143901280.3958218</v>
       </c>
       <c r="G64">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="H64">
-        <v>692.5</v>
+        <v>577.5</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2">
-        <v>44166.375</v>
+        <v>44180.375</v>
       </c>
       <c r="B65">
-        <v>720</v>
+        <v>540</v>
       </c>
       <c r="C65">
-        <v>742</v>
+        <v>551</v>
       </c>
       <c r="D65">
-        <v>662</v>
+        <v>507</v>
       </c>
       <c r="E65">
-        <v>681</v>
+        <v>509</v>
       </c>
       <c r="F65">
-        <v>683947632.6428695</v>
+        <v>229495729.2211108</v>
       </c>
       <c r="G65">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="H65">
-        <v>756</v>
+        <v>554</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2">
-        <v>44167.375</v>
+        <v>44181.375</v>
       </c>
       <c r="B66">
-        <v>681</v>
+        <v>509</v>
       </c>
       <c r="C66">
-        <v>697</v>
+        <v>617</v>
       </c>
       <c r="D66">
-        <v>661</v>
+        <v>482</v>
       </c>
       <c r="E66">
-        <v>691</v>
+        <v>611</v>
       </c>
       <c r="F66">
-        <v>266777247.2240764</v>
+        <v>768724349.8274014</v>
       </c>
       <c r="G66">
-        <v>18</v>
+        <v>67.5</v>
       </c>
       <c r="H66">
-        <v>721</v>
+        <v>531</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="2">
-        <v>44168.375</v>
+        <v>44182.375</v>
       </c>
       <c r="B67">
-        <v>691</v>
+        <v>611</v>
       </c>
       <c r="C67">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D67">
-        <v>675</v>
+        <v>589</v>
       </c>
       <c r="E67">
-        <v>687</v>
+        <v>626</v>
       </c>
       <c r="F67">
-        <v>169194576.4917351</v>
+        <v>995588035.9106001</v>
       </c>
       <c r="G67">
-        <v>12</v>
+        <v>55.5</v>
       </c>
       <c r="H67">
-        <v>709</v>
+        <v>678.5</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2">
-        <v>44169.375</v>
+        <v>44183.375</v>
       </c>
       <c r="B68">
-        <v>687</v>
+        <v>625</v>
       </c>
       <c r="C68">
-        <v>691</v>
+        <v>665</v>
       </c>
       <c r="D68">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E68">
-        <v>612</v>
+        <v>634</v>
       </c>
       <c r="F68">
-        <v>391777275.4065453</v>
+        <v>465919829.359835</v>
       </c>
       <c r="G68">
-        <v>47</v>
+        <v>33.5</v>
       </c>
       <c r="H68">
-        <v>699</v>
+        <v>680.5</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2">
-        <v>44170.375</v>
+        <v>44184.375</v>
       </c>
       <c r="B69">
-        <v>612</v>
+        <v>634</v>
       </c>
       <c r="C69">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="D69">
-        <v>603</v>
+        <v>620</v>
       </c>
       <c r="E69">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F69">
-        <v>265793473.7651066</v>
+        <v>256351134.4708925</v>
       </c>
       <c r="G69">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H69">
-        <v>659</v>
+        <v>667.5</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2">
-        <v>44171.375</v>
+        <v>44185.375</v>
       </c>
       <c r="B70">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C70">
-        <v>681</v>
+        <v>647</v>
       </c>
       <c r="D70">
-        <v>632</v>
+        <v>600</v>
       </c>
       <c r="E70">
-        <v>673</v>
+        <v>614</v>
       </c>
       <c r="F70">
-        <v>369768900.9478307</v>
+        <v>199701257.8173497</v>
       </c>
       <c r="G70">
-        <v>24.5</v>
+        <v>23.5</v>
       </c>
       <c r="H70">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2">
-        <v>44172.375</v>
+        <v>44186.375</v>
       </c>
       <c r="B71">
-        <v>674</v>
+        <v>614</v>
       </c>
       <c r="C71">
-        <v>676</v>
+        <v>629</v>
       </c>
       <c r="D71">
-        <v>648</v>
+        <v>559</v>
       </c>
       <c r="E71">
-        <v>661</v>
+        <v>574</v>
       </c>
       <c r="F71">
-        <v>152042725.4128784</v>
+        <v>432321418.0583236</v>
       </c>
       <c r="G71">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H71">
-        <v>698.5</v>
+        <v>637.5</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2">
-        <v>44173.375</v>
+        <v>44187.375</v>
       </c>
       <c r="B72">
-        <v>662</v>
+        <v>574</v>
       </c>
       <c r="C72">
-        <v>667</v>
+        <v>582</v>
       </c>
       <c r="D72">
-        <v>601</v>
+        <v>472</v>
       </c>
       <c r="E72">
-        <v>612</v>
+        <v>503</v>
       </c>
       <c r="F72">
-        <v>264933493.4168682</v>
+        <v>941187846.0691341</v>
       </c>
       <c r="G72">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="H72">
-        <v>676</v>
+        <v>609</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2">
-        <v>44174.375</v>
+        <v>44188.375</v>
       </c>
       <c r="B73">
-        <v>612</v>
+        <v>503</v>
       </c>
       <c r="C73">
-        <v>655</v>
+        <v>511</v>
       </c>
       <c r="D73">
-        <v>552</v>
+        <v>253</v>
       </c>
       <c r="E73">
-        <v>637</v>
+        <v>296</v>
       </c>
       <c r="F73">
-        <v>720299524.9973058</v>
+        <v>3751620778.313673</v>
       </c>
       <c r="G73">
-        <v>51.5</v>
+        <v>129</v>
       </c>
       <c r="H73">
-        <v>645</v>
+        <v>558</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2">
-        <v>44175.375</v>
+        <v>44189.375</v>
       </c>
       <c r="B74">
-        <v>638</v>
+        <v>296</v>
       </c>
       <c r="C74">
-        <v>644</v>
+        <v>411</v>
       </c>
       <c r="D74">
-        <v>609</v>
+        <v>275</v>
       </c>
       <c r="E74">
-        <v>626</v>
+        <v>376</v>
       </c>
       <c r="F74">
-        <v>377054012.1788579</v>
+        <v>3118416958.411685</v>
       </c>
       <c r="G74">
-        <v>17.5</v>
+        <v>68</v>
       </c>
       <c r="H74">
-        <v>689.5</v>
+        <v>425</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2">
-        <v>44176.375</v>
+        <v>44190.375</v>
       </c>
       <c r="B75">
-        <v>626</v>
+        <v>375</v>
       </c>
       <c r="C75">
-        <v>629</v>
+        <v>423</v>
       </c>
       <c r="D75">
-        <v>567</v>
+        <v>310</v>
       </c>
       <c r="E75">
-        <v>581</v>
+        <v>349</v>
       </c>
       <c r="F75">
-        <v>480825461.6277264</v>
+        <v>3261291096.851013</v>
       </c>
       <c r="G75">
-        <v>31</v>
+        <v>56.5</v>
       </c>
       <c r="H75">
-        <v>643.5</v>
+        <v>443</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2">
-        <v>44177.375</v>
+        <v>44191.375</v>
       </c>
       <c r="B76">
-        <v>582</v>
+        <v>348</v>
       </c>
       <c r="C76">
-        <v>593</v>
+        <v>358</v>
       </c>
       <c r="D76">
-        <v>530</v>
+        <v>316</v>
       </c>
       <c r="E76">
-        <v>555</v>
+        <v>327</v>
       </c>
       <c r="F76">
-        <v>550612538.7971232</v>
+        <v>1128730657.132069</v>
       </c>
       <c r="G76">
-        <v>31.5</v>
+        <v>21</v>
       </c>
       <c r="H76">
-        <v>613</v>
+        <v>404.5</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="2">
-        <v>44178.375</v>
+        <v>44192.375</v>
       </c>
       <c r="B77">
-        <v>554</v>
+        <v>328</v>
       </c>
       <c r="C77">
-        <v>574</v>
+        <v>342</v>
       </c>
       <c r="D77">
-        <v>533</v>
+        <v>297</v>
       </c>
       <c r="E77">
-        <v>557</v>
+        <v>317</v>
       </c>
       <c r="F77">
-        <v>278501235.8181894</v>
+        <v>1212050521.369457</v>
       </c>
       <c r="G77">
-        <v>20.5</v>
+        <v>22.5</v>
       </c>
       <c r="H77">
-        <v>585.5</v>
+        <v>349</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="2">
-        <v>44179.375</v>
+        <v>44193.375</v>
       </c>
       <c r="B78">
-        <v>557</v>
+        <v>317</v>
       </c>
       <c r="C78">
-        <v>563</v>
+        <v>343</v>
       </c>
       <c r="D78">
-        <v>535</v>
+        <v>262</v>
       </c>
       <c r="E78">
-        <v>540</v>
+        <v>277</v>
       </c>
       <c r="F78">
-        <v>143901280.3958218</v>
+        <v>945715098.6270112</v>
       </c>
       <c r="G78">
-        <v>14</v>
+        <v>40.5</v>
       </c>
       <c r="H78">
-        <v>577.5</v>
+        <v>339.5</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="2">
-        <v>44180.375</v>
+        <v>44194.375</v>
       </c>
       <c r="B79">
-        <v>540</v>
+        <v>277</v>
       </c>
       <c r="C79">
-        <v>551</v>
+        <v>279</v>
       </c>
       <c r="D79">
-        <v>507</v>
+        <v>198</v>
       </c>
       <c r="E79">
-        <v>509</v>
+        <v>247</v>
       </c>
       <c r="F79">
-        <v>229495729.2211108</v>
+        <v>2919976685.685579</v>
       </c>
       <c r="G79">
-        <v>22</v>
+        <v>40.5</v>
       </c>
       <c r="H79">
-        <v>554</v>
+        <v>317.5</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2">
-        <v>44181.375</v>
+        <v>44195.375</v>
       </c>
       <c r="B80">
-        <v>509</v>
+        <v>247</v>
       </c>
       <c r="C80">
-        <v>617</v>
+        <v>262</v>
       </c>
       <c r="D80">
-        <v>482</v>
+        <v>214</v>
       </c>
       <c r="E80">
-        <v>611</v>
+        <v>233</v>
       </c>
       <c r="F80">
-        <v>768724349.8274014</v>
+        <v>1338916068.201198</v>
       </c>
       <c r="G80">
-        <v>67.5</v>
+        <v>24</v>
       </c>
       <c r="H80">
-        <v>531</v>
+        <v>287.5</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="2">
-        <v>44182.375</v>
+        <v>44196.375</v>
       </c>
       <c r="B81">
-        <v>611</v>
+        <v>233</v>
       </c>
       <c r="C81">
-        <v>700</v>
+        <v>253</v>
       </c>
       <c r="D81">
-        <v>589</v>
+        <v>228</v>
       </c>
       <c r="E81">
-        <v>626</v>
+        <v>243</v>
       </c>
       <c r="F81">
-        <v>995588035.9106001</v>
+        <v>616252351.956686</v>
       </c>
       <c r="G81">
-        <v>55.5</v>
+        <v>12.5</v>
       </c>
       <c r="H81">
-        <v>678.5</v>
+        <v>257</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="2">
-        <v>44183.375</v>
+        <v>44197.375</v>
       </c>
       <c r="B82">
-        <v>625</v>
+        <v>243</v>
       </c>
       <c r="C82">
-        <v>665</v>
+        <v>276</v>
       </c>
       <c r="D82">
-        <v>598</v>
+        <v>239</v>
       </c>
       <c r="E82">
-        <v>634</v>
+        <v>262</v>
       </c>
       <c r="F82">
-        <v>465919829.359835</v>
+        <v>1025934533.495432</v>
       </c>
       <c r="G82">
-        <v>33.5</v>
+        <v>18.5</v>
       </c>
       <c r="H82">
-        <v>680.5</v>
+        <v>255.5</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="2">
-        <v>44184.375</v>
+        <v>44198.375</v>
       </c>
       <c r="B83">
-        <v>634</v>
+        <v>262</v>
       </c>
       <c r="C83">
-        <v>660</v>
+        <v>263</v>
       </c>
       <c r="D83">
-        <v>620</v>
+        <v>237</v>
       </c>
       <c r="E83">
-        <v>634</v>
+        <v>245</v>
       </c>
       <c r="F83">
-        <v>256351134.4708925</v>
+        <v>510408966.5342262</v>
       </c>
       <c r="G83">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H83">
-        <v>667.5</v>
+        <v>280.5</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="2">
-        <v>44185.375</v>
+        <v>44199.375</v>
       </c>
       <c r="B84">
-        <v>634</v>
+        <v>245</v>
       </c>
       <c r="C84">
-        <v>647</v>
+        <v>268</v>
       </c>
       <c r="D84">
-        <v>600</v>
+        <v>241</v>
       </c>
       <c r="E84">
-        <v>614</v>
+        <v>256</v>
       </c>
       <c r="F84">
-        <v>199701257.8173497</v>
+        <v>871057216.5446248</v>
       </c>
       <c r="G84">
-        <v>23.5</v>
+        <v>13.5</v>
       </c>
       <c r="H84">
-        <v>654</v>
+        <v>258</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="2">
-        <v>44186.375</v>
+        <v>44200.375</v>
       </c>
       <c r="B85">
-        <v>614</v>
+        <v>255</v>
       </c>
       <c r="C85">
-        <v>629</v>
+        <v>322</v>
       </c>
       <c r="D85">
-        <v>559</v>
+        <v>249</v>
       </c>
       <c r="E85">
-        <v>574</v>
+        <v>269</v>
       </c>
       <c r="F85">
-        <v>432321418.0583236</v>
+        <v>1485322365.936018</v>
       </c>
       <c r="G85">
-        <v>35</v>
+        <v>36.5</v>
       </c>
       <c r="H85">
-        <v>637.5</v>
+        <v>268.5</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="2">
-        <v>44187.375</v>
+        <v>44201.375</v>
       </c>
       <c r="B86">
-        <v>574</v>
+        <v>268</v>
       </c>
       <c r="C86">
-        <v>582</v>
+        <v>278</v>
       </c>
       <c r="D86">
-        <v>472</v>
+        <v>247</v>
       </c>
       <c r="E86">
-        <v>503</v>
+        <v>253</v>
       </c>
       <c r="F86">
-        <v>941187846.0691341</v>
+        <v>765746607.6633329</v>
       </c>
       <c r="G86">
-        <v>55</v>
+        <v>15.5</v>
       </c>
       <c r="H86">
-        <v>609</v>
+        <v>304.5</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="2">
-        <v>44188.375</v>
+        <v>44202.375</v>
       </c>
       <c r="B87">
-        <v>503</v>
+        <v>253</v>
       </c>
       <c r="C87">
-        <v>511</v>
+        <v>309</v>
       </c>
       <c r="D87">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E87">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="F87">
-        <v>3751620778.313673</v>
+        <v>1529761478.853875</v>
       </c>
       <c r="G87">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="H87">
-        <v>558</v>
+        <v>268.5</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="2">
-        <v>44189.375</v>
+        <v>44203.375</v>
       </c>
       <c r="B88">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="C88">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D88">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E88">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="F88">
-        <v>3118416958.411685</v>
+        <v>3848335260.904459</v>
       </c>
       <c r="G88">
-        <v>68</v>
+        <v>70.5</v>
       </c>
       <c r="H88">
-        <v>425</v>
+        <v>307</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="2">
-        <v>44190.375</v>
+        <v>44204.375</v>
       </c>
       <c r="B89">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C89">
-        <v>423</v>
+        <v>394</v>
       </c>
       <c r="D89">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="E89">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="F89">
-        <v>3261291096.851013</v>
+        <v>1734771878.312139</v>
       </c>
       <c r="G89">
-        <v>56.5</v>
+        <v>32</v>
       </c>
       <c r="H89">
-        <v>443</v>
+        <v>438.5</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="2">
-        <v>44191.375</v>
+        <v>44205.375</v>
       </c>
       <c r="B90">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="C90">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="D90">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="E90">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="F90">
-        <v>1128730657.132069</v>
+        <v>837490042.4832691</v>
       </c>
       <c r="G90">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H90">
-        <v>404.5</v>
+        <v>405</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="2">
-        <v>44192.375</v>
+        <v>44206.375</v>
       </c>
       <c r="B91">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="C91">
-        <v>342</v>
+        <v>441</v>
       </c>
       <c r="D91">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="E91">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="F91">
-        <v>1212050521.369457</v>
+        <v>1922495449.030384</v>
       </c>
       <c r="G91">
-        <v>22.5</v>
+        <v>58</v>
       </c>
       <c r="H91">
-        <v>349</v>
+        <v>385</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="2">
-        <v>44193.375</v>
+        <v>44207.375</v>
       </c>
       <c r="B92">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="C92">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="D92">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="E92">
-        <v>277</v>
+        <v>326</v>
       </c>
       <c r="F92">
-        <v>945715098.6270112</v>
+        <v>1831714178.021117</v>
       </c>
       <c r="G92">
-        <v>40.5</v>
+        <v>36</v>
       </c>
       <c r="H92">
-        <v>339.5</v>
+        <v>416</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="2">
-        <v>44194.375</v>
+        <v>44208.375</v>
       </c>
       <c r="B93">
-        <v>277</v>
+        <v>326</v>
       </c>
       <c r="C93">
-        <v>279</v>
+        <v>350</v>
       </c>
       <c r="D93">
-        <v>198</v>
+        <v>311</v>
       </c>
       <c r="E93">
-        <v>247</v>
+        <v>331</v>
       </c>
       <c r="F93">
-        <v>2919976685.685579</v>
+        <v>868161482.1459674</v>
       </c>
       <c r="G93">
-        <v>40.5</v>
+        <v>19.5</v>
       </c>
       <c r="H93">
-        <v>317.5</v>
+        <v>362</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="2">
-        <v>44195.375</v>
+        <v>44209.375</v>
       </c>
       <c r="B94">
-        <v>247</v>
+        <v>332</v>
       </c>
       <c r="C94">
-        <v>262</v>
+        <v>343</v>
       </c>
       <c r="D94">
-        <v>214</v>
+        <v>325</v>
       </c>
       <c r="E94">
-        <v>233</v>
+        <v>339</v>
       </c>
       <c r="F94">
-        <v>1338916068.201198</v>
+        <v>383137932.348258</v>
       </c>
       <c r="G94">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="H94">
-        <v>287.5</v>
+        <v>351.5</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="2">
-        <v>44196.375</v>
+        <v>44210.375</v>
       </c>
       <c r="B95">
-        <v>233</v>
+        <v>338</v>
       </c>
       <c r="C95">
-        <v>253</v>
+        <v>343</v>
       </c>
       <c r="D95">
-        <v>228</v>
+        <v>311</v>
       </c>
       <c r="E95">
-        <v>243</v>
+        <v>323</v>
       </c>
       <c r="F95">
-        <v>616252351.956686</v>
+        <v>515269665.4597995</v>
       </c>
       <c r="G95">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="H95">
-        <v>257</v>
+        <v>347</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="2">
-        <v>44197.375</v>
+        <v>44211.375</v>
       </c>
       <c r="B96">
-        <v>243</v>
+        <v>324</v>
       </c>
       <c r="C96">
-        <v>276</v>
+        <v>332</v>
       </c>
       <c r="D96">
-        <v>239</v>
+        <v>296</v>
       </c>
       <c r="E96">
-        <v>262</v>
+        <v>313</v>
       </c>
       <c r="F96">
-        <v>1025934533.495432</v>
+        <v>418467766.2168551</v>
       </c>
       <c r="G96">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="H96">
-        <v>255.5</v>
+        <v>340</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="2">
-        <v>44198.375</v>
+        <v>44212.375</v>
       </c>
       <c r="B97">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="C97">
-        <v>263</v>
+        <v>325</v>
       </c>
       <c r="D97">
-        <v>237</v>
+        <v>307</v>
       </c>
       <c r="E97">
-        <v>245</v>
+        <v>310</v>
       </c>
       <c r="F97">
-        <v>510408966.5342262</v>
+        <v>404266795.607973</v>
       </c>
       <c r="G97">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H97">
-        <v>280.5</v>
+        <v>330</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="2">
-        <v>44199.375</v>
+        <v>44213.375</v>
       </c>
       <c r="B98">
-        <v>245</v>
+        <v>310</v>
       </c>
       <c r="C98">
-        <v>268</v>
+        <v>318</v>
       </c>
       <c r="D98">
-        <v>241</v>
+        <v>301</v>
       </c>
       <c r="E98">
-        <v>256</v>
+        <v>306</v>
       </c>
       <c r="F98">
-        <v>871057216.5446248</v>
+        <v>300748056.7086875</v>
       </c>
       <c r="G98">
-        <v>13.5</v>
+        <v>8.5</v>
       </c>
       <c r="H98">
-        <v>258</v>
+        <v>319</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="2">
-        <v>44200.375</v>
+        <v>44214.375</v>
       </c>
       <c r="B99">
-        <v>255</v>
+        <v>307</v>
       </c>
       <c r="C99">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D99">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="E99">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="F99">
-        <v>1485322365.936018</v>
+        <v>294906217.8815751</v>
       </c>
       <c r="G99">
-        <v>36.5</v>
+        <v>9</v>
       </c>
       <c r="H99">
-        <v>268.5</v>
+        <v>315.5</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="2">
-        <v>44201.375</v>
+        <v>44215.375</v>
       </c>
       <c r="B100">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="C100">
-        <v>278</v>
+        <v>361</v>
       </c>
       <c r="D100">
-        <v>247</v>
+        <v>309</v>
       </c>
       <c r="E100">
-        <v>253</v>
+        <v>324</v>
       </c>
       <c r="F100">
-        <v>765746607.6633329</v>
+        <v>913407939.2114615</v>
       </c>
       <c r="G100">
-        <v>15.5</v>
+        <v>26</v>
       </c>
       <c r="H100">
-        <v>304.5</v>
+        <v>320</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="2">
-        <v>44202.375</v>
+        <v>44216.375</v>
       </c>
       <c r="B101">
-        <v>253</v>
+        <v>324</v>
       </c>
       <c r="C101">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="D101">
-        <v>247</v>
+        <v>311</v>
       </c>
       <c r="E101">
-        <v>276</v>
+        <v>327</v>
       </c>
       <c r="F101">
-        <v>1529761478.853875</v>
+        <v>458267632.0267203</v>
       </c>
       <c r="G101">
-        <v>31</v>
+        <v>16.5</v>
       </c>
       <c r="H101">
-        <v>268.5</v>
+        <v>350</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="2">
-        <v>44203.375</v>
+        <v>44217.375</v>
       </c>
       <c r="B102">
-        <v>276</v>
+        <v>327</v>
       </c>
       <c r="C102">
-        <v>412</v>
+        <v>343</v>
       </c>
       <c r="D102">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="E102">
-        <v>368</v>
+        <v>301</v>
       </c>
       <c r="F102">
-        <v>3848335260.904459</v>
+        <v>572491237.5256932</v>
       </c>
       <c r="G102">
-        <v>70.5</v>
+        <v>25</v>
       </c>
       <c r="H102">
-        <v>307</v>
+        <v>343.5</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="2">
-        <v>44204.375</v>
+        <v>44218.375</v>
       </c>
       <c r="B103">
-        <v>368</v>
+        <v>301</v>
       </c>
       <c r="C103">
-        <v>394</v>
+        <v>309</v>
       </c>
       <c r="D103">
-        <v>330</v>
+        <v>267</v>
       </c>
       <c r="E103">
-        <v>374</v>
+        <v>301</v>
       </c>
       <c r="F103">
-        <v>1734771878.312139</v>
+        <v>710650144.5366622</v>
       </c>
       <c r="G103">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H103">
-        <v>438.5</v>
+        <v>326</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="2">
-        <v>44205.375</v>
+        <v>44219.375</v>
       </c>
       <c r="B104">
-        <v>373</v>
+        <v>301</v>
       </c>
       <c r="C104">
-        <v>385</v>
+        <v>316</v>
       </c>
       <c r="D104">
-        <v>355</v>
+        <v>292</v>
       </c>
       <c r="E104">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="F104">
-        <v>837490042.4832691</v>
+        <v>322804068.4635816</v>
       </c>
       <c r="G104">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H104">
-        <v>405</v>
+        <v>322</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="2">
-        <v>44206.375</v>
+        <v>44220.375</v>
       </c>
       <c r="B105">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="C105">
-        <v>441</v>
+        <v>306</v>
       </c>
       <c r="D105">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="E105">
-        <v>357</v>
+        <v>302</v>
       </c>
       <c r="F105">
-        <v>1922495449.030384</v>
+        <v>198818436.1912127</v>
       </c>
       <c r="G105">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="H105">
-        <v>385</v>
+        <v>312</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="2">
-        <v>44207.375</v>
+        <v>44221.375</v>
       </c>
       <c r="B106">
-        <v>358</v>
+        <v>301</v>
       </c>
       <c r="C106">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="D106">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E106">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="F106">
-        <v>1831714178.021117</v>
+        <v>258782773.4821397</v>
       </c>
       <c r="G106">
-        <v>36</v>
+        <v>8.5</v>
       </c>
       <c r="H106">
-        <v>416</v>
+        <v>306</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="2">
-        <v>44208.375</v>
+        <v>44222.375</v>
       </c>
       <c r="B107">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="C107">
-        <v>350</v>
+        <v>303</v>
       </c>
       <c r="D107">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="E107">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="F107">
-        <v>868161482.1459674</v>
+        <v>187053762.1345974</v>
       </c>
       <c r="G107">
-        <v>19.5</v>
+        <v>6</v>
       </c>
       <c r="H107">
-        <v>362</v>
+        <v>306.5</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="2">
-        <v>44209.375</v>
+        <v>44223.375</v>
       </c>
       <c r="B108">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="C108">
-        <v>343</v>
+        <v>298</v>
       </c>
       <c r="D108">
-        <v>325</v>
+        <v>276</v>
       </c>
       <c r="E108">
-        <v>339</v>
+        <v>284</v>
       </c>
       <c r="F108">
-        <v>383137932.348258</v>
+        <v>228502017.5444015</v>
       </c>
       <c r="G108">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H108">
-        <v>351.5</v>
+        <v>303</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="2">
-        <v>44210.375</v>
+        <v>44224.375</v>
       </c>
       <c r="B109">
-        <v>338</v>
+        <v>284</v>
       </c>
       <c r="C109">
-        <v>343</v>
+        <v>298</v>
       </c>
       <c r="D109">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="E109">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="F109">
-        <v>515269665.4597995</v>
+        <v>312121198.8580245</v>
       </c>
       <c r="G109">
-        <v>16</v>
+        <v>9.5</v>
       </c>
       <c r="H109">
-        <v>347</v>
+        <v>295</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="2">
-        <v>44211.375</v>
+        <v>44225.375</v>
       </c>
       <c r="B110">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="C110">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="D110">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="E110">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F110">
-        <v>418467766.2168551</v>
+        <v>1029193399.176064</v>
       </c>
       <c r="G110">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H110">
-        <v>340</v>
+        <v>300.5</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="2">
-        <v>44212.375</v>
+        <v>44226.375</v>
       </c>
       <c r="B111">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C111">
-        <v>325</v>
+        <v>560</v>
       </c>
       <c r="D111">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E111">
-        <v>310</v>
+        <v>479</v>
       </c>
       <c r="F111">
-        <v>404266795.607973</v>
+        <v>5092312051.558241</v>
       </c>
       <c r="G111">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="H111">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="2">
-        <v>44213.375</v>
+        <v>44227.375</v>
       </c>
       <c r="B112">
-        <v>310</v>
+        <v>479</v>
       </c>
       <c r="C112">
-        <v>318</v>
+        <v>554</v>
       </c>
       <c r="D112">
-        <v>301</v>
+        <v>426</v>
       </c>
       <c r="E112">
-        <v>306</v>
+        <v>539</v>
       </c>
       <c r="F112">
-        <v>300748056.7086875</v>
+        <v>4407893531.898772</v>
       </c>
       <c r="G112">
-        <v>8.5</v>
+        <v>64</v>
       </c>
       <c r="H112">
-        <v>319</v>
+        <v>604</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="2">
-        <v>44214.375</v>
+        <v>44228.375</v>
       </c>
       <c r="B113">
-        <v>307</v>
+        <v>539</v>
       </c>
       <c r="C113">
-        <v>319</v>
+        <v>829</v>
       </c>
       <c r="D113">
-        <v>301</v>
+        <v>389</v>
       </c>
       <c r="E113">
-        <v>312</v>
+        <v>403</v>
       </c>
       <c r="F113">
-        <v>294906217.8815751</v>
+        <v>8160617100.764026</v>
       </c>
       <c r="G113">
-        <v>9</v>
+        <v>220</v>
       </c>
       <c r="H113">
-        <v>315.5</v>
+        <v>603</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="2">
-        <v>44215.375</v>
+        <v>44229.375</v>
       </c>
       <c r="B114">
-        <v>311</v>
+        <v>403</v>
       </c>
       <c r="C114">
-        <v>361</v>
+        <v>438</v>
       </c>
       <c r="D114">
-        <v>309</v>
+        <v>372</v>
       </c>
       <c r="E114">
-        <v>324</v>
+        <v>398</v>
       </c>
       <c r="F114">
-        <v>913407939.2114615</v>
+        <v>2091966634.228459</v>
       </c>
       <c r="G114">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H114">
-        <v>320</v>
+        <v>623</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="2">
-        <v>44216.375</v>
+        <v>44230.375</v>
       </c>
       <c r="B115">
-        <v>324</v>
+        <v>398</v>
       </c>
       <c r="C115">
-        <v>344</v>
+        <v>438</v>
       </c>
       <c r="D115">
-        <v>311</v>
+        <v>397</v>
       </c>
       <c r="E115">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="F115">
-        <v>458267632.0267203</v>
+        <v>961561688.1612585</v>
       </c>
       <c r="G115">
-        <v>16.5</v>
+        <v>20.5</v>
       </c>
       <c r="H115">
-        <v>350</v>
+        <v>431</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="2">
-        <v>44217.375</v>
+        <v>44231.375</v>
       </c>
       <c r="B116">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="C116">
-        <v>343</v>
+        <v>514</v>
       </c>
       <c r="D116">
-        <v>293</v>
+        <v>397</v>
       </c>
       <c r="E116">
-        <v>301</v>
+        <v>481</v>
       </c>
       <c r="F116">
-        <v>572491237.5256932</v>
+        <v>1595473171.632018</v>
       </c>
       <c r="G116">
-        <v>25</v>
+        <v>58.5</v>
       </c>
       <c r="H116">
-        <v>343.5</v>
+        <v>436.5</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="2">
-        <v>44218.375</v>
+        <v>44232.375</v>
       </c>
       <c r="B117">
-        <v>301</v>
+        <v>481</v>
       </c>
       <c r="C117">
-        <v>309</v>
+        <v>508</v>
       </c>
       <c r="D117">
-        <v>267</v>
+        <v>454</v>
       </c>
       <c r="E117">
-        <v>301</v>
+        <v>477</v>
       </c>
       <c r="F117">
-        <v>710650144.5366622</v>
+        <v>1097550346.940616</v>
       </c>
       <c r="G117">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H117">
-        <v>326</v>
+        <v>539.5</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="2">
-        <v>44219.375</v>
+        <v>44233.375</v>
       </c>
       <c r="B118">
-        <v>301</v>
+        <v>477</v>
       </c>
       <c r="C118">
-        <v>316</v>
+        <v>485</v>
       </c>
       <c r="D118">
-        <v>292</v>
+        <v>455</v>
       </c>
       <c r="E118">
-        <v>300</v>
+        <v>472</v>
       </c>
       <c r="F118">
-        <v>322804068.4635816</v>
+        <v>494011697.3779997</v>
       </c>
       <c r="G118">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H118">
-        <v>322</v>
+        <v>504</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="2">
-        <v>44220.375</v>
+        <v>44234.375</v>
       </c>
       <c r="B119">
-        <v>300</v>
+        <v>472</v>
       </c>
       <c r="C119">
-        <v>306</v>
+        <v>483</v>
       </c>
       <c r="D119">
-        <v>296</v>
+        <v>428</v>
       </c>
       <c r="E119">
-        <v>302</v>
+        <v>454</v>
       </c>
       <c r="F119">
-        <v>198818436.1912127</v>
+        <v>783560727.7389921</v>
       </c>
       <c r="G119">
-        <v>5</v>
+        <v>27.5</v>
       </c>
       <c r="H119">
-        <v>312</v>
+        <v>487</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="2">
-        <v>44221.375</v>
+        <v>44235.375</v>
       </c>
       <c r="B120">
-        <v>301</v>
+        <v>454</v>
       </c>
       <c r="C120">
-        <v>315</v>
+        <v>499</v>
       </c>
       <c r="D120">
-        <v>298</v>
+        <v>449</v>
       </c>
       <c r="E120">
-        <v>299</v>
+        <v>476</v>
       </c>
       <c r="F120">
-        <v>258782773.4821397</v>
+        <v>841067151.1574997</v>
       </c>
       <c r="G120">
-        <v>8.5</v>
+        <v>25</v>
       </c>
       <c r="H120">
-        <v>306</v>
+        <v>481.5</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="2">
-        <v>44222.375</v>
+        <v>44236.375</v>
       </c>
       <c r="B121">
-        <v>298</v>
+        <v>476</v>
       </c>
       <c r="C121">
-        <v>303</v>
+        <v>524</v>
       </c>
       <c r="D121">
-        <v>291</v>
+        <v>470</v>
       </c>
       <c r="E121">
-        <v>297</v>
+        <v>499</v>
       </c>
       <c r="F121">
-        <v>187053762.1345974</v>
+        <v>942187774.5385436</v>
       </c>
       <c r="G121">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="H121">
-        <v>306.5</v>
+        <v>501</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="2">
-        <v>44223.375</v>
+        <v>44237.375</v>
       </c>
       <c r="B122">
-        <v>297</v>
+        <v>498</v>
       </c>
       <c r="C122">
-        <v>298</v>
+        <v>574</v>
       </c>
       <c r="D122">
-        <v>276</v>
+        <v>490</v>
       </c>
       <c r="E122">
-        <v>284</v>
+        <v>546</v>
       </c>
       <c r="F122">
-        <v>228502017.5444015</v>
+        <v>1787428596.869241</v>
       </c>
       <c r="G122">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="H122">
-        <v>303</v>
+        <v>525</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="2">
-        <v>44224.375</v>
+        <v>44238.375</v>
       </c>
       <c r="B123">
-        <v>284</v>
+        <v>546</v>
       </c>
       <c r="C123">
-        <v>298</v>
+        <v>578</v>
       </c>
       <c r="D123">
-        <v>279</v>
+        <v>537</v>
       </c>
       <c r="E123">
-        <v>292</v>
+        <v>566</v>
       </c>
       <c r="F123">
-        <v>312121198.8580245</v>
+        <v>881310124.4857898</v>
       </c>
       <c r="G123">
-        <v>9.5</v>
+        <v>20.5</v>
       </c>
       <c r="H123">
-        <v>295</v>
+        <v>588</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="2">
-        <v>44225.375</v>
+        <v>44239.375</v>
       </c>
       <c r="B124">
-        <v>291</v>
+        <v>566</v>
       </c>
       <c r="C124">
-        <v>341</v>
+        <v>661</v>
       </c>
       <c r="D124">
-        <v>287</v>
+        <v>559</v>
       </c>
       <c r="E124">
-        <v>311</v>
+        <v>653</v>
       </c>
       <c r="F124">
-        <v>1029193399.176064</v>
+        <v>1732419758.095227</v>
       </c>
       <c r="G124">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H124">
-        <v>300.5</v>
+        <v>586.5</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="2">
-        <v>44226.375</v>
+        <v>44240.375</v>
       </c>
       <c r="B125">
-        <v>310</v>
+        <v>654</v>
       </c>
       <c r="C125">
-        <v>560</v>
+        <v>695</v>
       </c>
       <c r="D125">
-        <v>310</v>
+        <v>596</v>
       </c>
       <c r="E125">
-        <v>479</v>
+        <v>679</v>
       </c>
       <c r="F125">
-        <v>5092312051.558241</v>
+        <v>1612940579.102108</v>
       </c>
       <c r="G125">
-        <v>125</v>
+        <v>49.5</v>
       </c>
       <c r="H125">
-        <v>337</v>
+        <v>705</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="2">
-        <v>44227.375</v>
+        <v>44241.375</v>
       </c>
       <c r="B126">
-        <v>479</v>
+        <v>678</v>
       </c>
       <c r="C126">
-        <v>554</v>
+        <v>684</v>
       </c>
       <c r="D126">
-        <v>426</v>
+        <v>605</v>
       </c>
       <c r="E126">
-        <v>539</v>
+        <v>642</v>
       </c>
       <c r="F126">
-        <v>4407893531.898772</v>
+        <v>1081098371.085883</v>
       </c>
       <c r="G126">
-        <v>64</v>
+        <v>39.5</v>
       </c>
       <c r="H126">
-        <v>604</v>
+        <v>727.5</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="2">
-        <v>44228.375</v>
+        <v>44242.375</v>
       </c>
       <c r="B127">
-        <v>539</v>
+        <v>643</v>
       </c>
       <c r="C127">
-        <v>829</v>
+        <v>657</v>
       </c>
       <c r="D127">
-        <v>389</v>
+        <v>563</v>
       </c>
       <c r="E127">
-        <v>403</v>
+        <v>604</v>
       </c>
       <c r="F127">
-        <v>8160617100.764026</v>
+        <v>1272989852.816314</v>
       </c>
       <c r="G127">
-        <v>220</v>
+        <v>47</v>
       </c>
       <c r="H127">
-        <v>603</v>
+        <v>682.5</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="2">
-        <v>44229.375</v>
+        <v>44243.375</v>
       </c>
       <c r="B128">
-        <v>403</v>
+        <v>603</v>
       </c>
       <c r="C128">
-        <v>438</v>
+        <v>634</v>
       </c>
       <c r="D128">
-        <v>372</v>
+        <v>548</v>
       </c>
       <c r="E128">
-        <v>398</v>
+        <v>578</v>
       </c>
       <c r="F128">
-        <v>2091966634.228459</v>
+        <v>1177730494.49064</v>
       </c>
       <c r="G128">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H128">
-        <v>623</v>
+        <v>650</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="2">
-        <v>44230.375</v>
+        <v>44244.375</v>
       </c>
       <c r="B129">
-        <v>398</v>
+        <v>578</v>
       </c>
       <c r="C129">
-        <v>438</v>
+        <v>614</v>
       </c>
       <c r="D129">
-        <v>397</v>
+        <v>553</v>
       </c>
       <c r="E129">
-        <v>416</v>
+        <v>589</v>
       </c>
       <c r="F129">
-        <v>961561688.1612585</v>
+        <v>1061713553.55909</v>
       </c>
       <c r="G129">
-        <v>20.5</v>
+        <v>30.5</v>
       </c>
       <c r="H129">
-        <v>431</v>
+        <v>621</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="2">
-        <v>44231.375</v>
+        <v>44245.375</v>
       </c>
       <c r="B130">
-        <v>416</v>
+        <v>589</v>
       </c>
       <c r="C130">
-        <v>514</v>
+        <v>625</v>
       </c>
       <c r="D130">
-        <v>397</v>
+        <v>582</v>
       </c>
       <c r="E130">
-        <v>481</v>
+        <v>595</v>
       </c>
       <c r="F130">
-        <v>1595473171.632018</v>
+        <v>713675019.4879528</v>
       </c>
       <c r="G130">
-        <v>58.5</v>
+        <v>21.5</v>
       </c>
       <c r="H130">
-        <v>436.5</v>
+        <v>619.5</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="2">
-        <v>44232.375</v>
+        <v>44246.375</v>
       </c>
       <c r="B131">
-        <v>481</v>
+        <v>595</v>
       </c>
       <c r="C131">
-        <v>508</v>
+        <v>666</v>
       </c>
       <c r="D131">
-        <v>454</v>
+        <v>581</v>
       </c>
       <c r="E131">
-        <v>477</v>
+        <v>640</v>
       </c>
       <c r="F131">
-        <v>1097550346.940616</v>
+        <v>967598441.1354686</v>
       </c>
       <c r="G131">
-        <v>27</v>
+        <v>42.5</v>
       </c>
       <c r="H131">
-        <v>539.5</v>
+        <v>616.5</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="2">
-        <v>44233.375</v>
+        <v>44247.375</v>
       </c>
       <c r="B132">
-        <v>477</v>
+        <v>640</v>
       </c>
       <c r="C132">
-        <v>485</v>
+        <v>665</v>
       </c>
       <c r="D132">
-        <v>455</v>
+        <v>572</v>
       </c>
       <c r="E132">
-        <v>472</v>
+        <v>587</v>
       </c>
       <c r="F132">
-        <v>494011697.3779997</v>
+        <v>1057171784.439864</v>
       </c>
       <c r="G132">
-        <v>15</v>
+        <v>46.5</v>
       </c>
       <c r="H132">
-        <v>504</v>
+        <v>682.5</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="2">
-        <v>44234.375</v>
+        <v>44248.375</v>
       </c>
       <c r="B133">
-        <v>472</v>
+        <v>588</v>
       </c>
       <c r="C133">
-        <v>483</v>
+        <v>639</v>
       </c>
       <c r="D133">
-        <v>428</v>
+        <v>577</v>
       </c>
       <c r="E133">
-        <v>454</v>
+        <v>619</v>
       </c>
       <c r="F133">
-        <v>783560727.7389921</v>
+        <v>754803240.5697325</v>
       </c>
       <c r="G133">
-        <v>27.5</v>
+        <v>31</v>
       </c>
       <c r="H133">
-        <v>487</v>
+        <v>634.5</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="2">
-        <v>44235.375</v>
+        <v>44249.375</v>
       </c>
       <c r="B134">
-        <v>454</v>
+        <v>620</v>
       </c>
       <c r="C134">
-        <v>499</v>
+        <v>777</v>
       </c>
       <c r="D134">
-        <v>449</v>
+        <v>590</v>
       </c>
       <c r="E134">
-        <v>476</v>
+        <v>645</v>
       </c>
       <c r="F134">
-        <v>841067151.1574997</v>
+        <v>3209238645.61956</v>
       </c>
       <c r="G134">
-        <v>25</v>
+        <v>93.5</v>
       </c>
       <c r="H134">
-        <v>481.5</v>
+        <v>651</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="2">
-        <v>44236.375</v>
+        <v>44250.375</v>
       </c>
       <c r="B135">
-        <v>476</v>
+        <v>645</v>
       </c>
       <c r="C135">
-        <v>524</v>
+        <v>649</v>
       </c>
       <c r="D135">
-        <v>470</v>
+        <v>437</v>
       </c>
       <c r="E135">
-        <v>499</v>
+        <v>535</v>
       </c>
       <c r="F135">
-        <v>942187774.5385436</v>
+        <v>2729322060.303077</v>
       </c>
       <c r="G135">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="H135">
-        <v>501</v>
+        <v>738.5</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="2">
-        <v>44237.375</v>
+        <v>44251.375</v>
       </c>
       <c r="B136">
-        <v>498</v>
+        <v>535</v>
       </c>
       <c r="C136">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="D136">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="E136">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="F136">
-        <v>1787428596.869241</v>
+        <v>965973208.2117872</v>
       </c>
       <c r="G136">
-        <v>42</v>
+        <v>27.5</v>
       </c>
       <c r="H136">
-        <v>525</v>
+        <v>641</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="2">
-        <v>44238.375</v>
+        <v>44252.375</v>
       </c>
       <c r="B137">
+        <v>533</v>
+      </c>
+      <c r="C137">
         <v>546</v>
       </c>
-      <c r="C137">
-        <v>578</v>
-      </c>
       <c r="D137">
-        <v>537</v>
+        <v>493</v>
       </c>
       <c r="E137">
-        <v>566</v>
+        <v>504</v>
       </c>
       <c r="F137">
-        <v>881310124.4857898</v>
+        <v>566481170.8643399</v>
       </c>
       <c r="G137">
-        <v>20.5</v>
+        <v>26.5</v>
       </c>
       <c r="H137">
-        <v>588</v>
+        <v>560.5</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="2">
-        <v>44239.375</v>
+        <v>44253.375</v>
       </c>
       <c r="B138">
-        <v>566</v>
+        <v>503</v>
       </c>
       <c r="C138">
-        <v>661</v>
+        <v>518</v>
       </c>
       <c r="D138">
-        <v>559</v>
+        <v>476</v>
       </c>
       <c r="E138">
-        <v>653</v>
+        <v>498</v>
       </c>
       <c r="F138">
-        <v>1732419758.095227</v>
+        <v>619865655.8539323</v>
       </c>
       <c r="G138">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="H138">
-        <v>586.5</v>
+        <v>529.5</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="2">
-        <v>44240.375</v>
+        <v>44254.375</v>
       </c>
       <c r="B139">
-        <v>654</v>
+        <v>498</v>
       </c>
       <c r="C139">
-        <v>695</v>
+        <v>530</v>
       </c>
       <c r="D139">
-        <v>596</v>
+        <v>495</v>
       </c>
       <c r="E139">
-        <v>679</v>
+        <v>506</v>
       </c>
       <c r="F139">
-        <v>1612940579.102108</v>
+        <v>547682296.324013</v>
       </c>
       <c r="G139">
-        <v>49.5</v>
+        <v>17.5</v>
       </c>
       <c r="H139">
-        <v>705</v>
+        <v>519</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="2">
-        <v>44241.375</v>
+        <v>44255.375</v>
       </c>
       <c r="B140">
-        <v>678</v>
+        <v>505</v>
       </c>
       <c r="C140">
-        <v>684</v>
+        <v>509</v>
       </c>
       <c r="D140">
-        <v>605</v>
+        <v>456</v>
       </c>
       <c r="E140">
-        <v>642</v>
+        <v>477</v>
       </c>
       <c r="F140">
-        <v>1081098371.085883</v>
+        <v>469887202.0804736</v>
       </c>
       <c r="G140">
-        <v>39.5</v>
+        <v>26.5</v>
       </c>
       <c r="H140">
-        <v>727.5</v>
+        <v>522.5</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="2">
-        <v>44242.375</v>
+        <v>44256.375</v>
       </c>
       <c r="B141">
-        <v>643</v>
+        <v>478</v>
       </c>
       <c r="C141">
-        <v>657</v>
+        <v>512</v>
       </c>
       <c r="D141">
-        <v>563</v>
+        <v>473</v>
       </c>
       <c r="E141">
-        <v>604</v>
+        <v>506</v>
       </c>
       <c r="F141">
-        <v>1272989852.816314</v>
+        <v>387082296.9551749</v>
       </c>
       <c r="G141">
-        <v>47</v>
+        <v>19.5</v>
       </c>
       <c r="H141">
-        <v>682.5</v>
+        <v>504.5</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="2">
-        <v>44243.375</v>
+        <v>44257.375</v>
       </c>
       <c r="B142">
-        <v>603</v>
+        <v>506</v>
       </c>
       <c r="C142">
-        <v>634</v>
+        <v>520</v>
       </c>
       <c r="D142">
-        <v>548</v>
+        <v>490</v>
       </c>
       <c r="E142">
-        <v>578</v>
+        <v>504</v>
       </c>
       <c r="F142">
-        <v>1177730494.49064</v>
+        <v>356998388.4636351</v>
       </c>
       <c r="G142">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="H142">
-        <v>650</v>
+        <v>525.5</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="2">
-        <v>44244.375</v>
+        <v>44258.375</v>
       </c>
       <c r="B143">
-        <v>578</v>
+        <v>504</v>
       </c>
       <c r="C143">
-        <v>614</v>
+        <v>529</v>
       </c>
       <c r="D143">
-        <v>553</v>
+        <v>498</v>
       </c>
       <c r="E143">
-        <v>589</v>
+        <v>515</v>
       </c>
       <c r="F143">
-        <v>1061713553.55909</v>
+        <v>429247218.5923851</v>
       </c>
       <c r="G143">
-        <v>30.5</v>
+        <v>15.5</v>
       </c>
       <c r="H143">
-        <v>621</v>
+        <v>519</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="2">
-        <v>44245.375</v>
+        <v>44259.375</v>
       </c>
       <c r="B144">
-        <v>589</v>
+        <v>515</v>
       </c>
       <c r="C144">
-        <v>625</v>
+        <v>570</v>
       </c>
       <c r="D144">
-        <v>582</v>
+        <v>504</v>
       </c>
       <c r="E144">
-        <v>595</v>
+        <v>561</v>
       </c>
       <c r="F144">
-        <v>713675019.4879528</v>
+        <v>743267849.4611384</v>
       </c>
       <c r="G144">
-        <v>21.5</v>
+        <v>33</v>
       </c>
       <c r="H144">
-        <v>619.5</v>
+        <v>530.5</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="2">
-        <v>44246.375</v>
+        <v>44260.375</v>
       </c>
       <c r="B145">
-        <v>595</v>
+        <v>561</v>
       </c>
       <c r="C145">
-        <v>666</v>
+        <v>565</v>
       </c>
       <c r="D145">
-        <v>581</v>
+        <v>524</v>
       </c>
       <c r="E145">
-        <v>640</v>
+        <v>529</v>
       </c>
       <c r="F145">
-        <v>967598441.1354686</v>
+        <v>392203212.9217858</v>
       </c>
       <c r="G145">
-        <v>42.5</v>
+        <v>20.5</v>
       </c>
       <c r="H145">
-        <v>616.5</v>
+        <v>594</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="2">
-        <v>44247.375</v>
+        <v>44261.375</v>
       </c>
       <c r="B146">
-        <v>640</v>
+        <v>529</v>
       </c>
       <c r="C146">
-        <v>665</v>
+        <v>545</v>
       </c>
       <c r="D146">
-        <v>572</v>
+        <v>520</v>
       </c>
       <c r="E146">
-        <v>587</v>
+        <v>534</v>
       </c>
       <c r="F146">
-        <v>1057171784.439864</v>
+        <v>244990533.2190517</v>
       </c>
       <c r="G146">
-        <v>46.5</v>
+        <v>12.5</v>
       </c>
       <c r="H146">
-        <v>682.5</v>
+        <v>549.5</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="2">
-        <v>44248.375</v>
+        <v>44262.375</v>
       </c>
       <c r="B147">
-        <v>588</v>
+        <v>534</v>
       </c>
       <c r="C147">
-        <v>639</v>
+        <v>538</v>
       </c>
       <c r="D147">
-        <v>577</v>
+        <v>527</v>
       </c>
       <c r="E147">
-        <v>619</v>
+        <v>532</v>
       </c>
       <c r="F147">
-        <v>754803240.5697325</v>
+        <v>197647366.3689812</v>
       </c>
       <c r="G147">
-        <v>31</v>
+        <v>5.5</v>
       </c>
       <c r="H147">
-        <v>634.5</v>
+        <v>546.5</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="2">
-        <v>44249.375</v>
+        <v>44263.375</v>
       </c>
       <c r="B148">
-        <v>620</v>
+        <v>532</v>
       </c>
       <c r="C148">
-        <v>777</v>
+        <v>576</v>
       </c>
       <c r="D148">
-        <v>590</v>
+        <v>527</v>
       </c>
       <c r="E148">
-        <v>645</v>
+        <v>542</v>
       </c>
       <c r="F148">
-        <v>3209238645.61956</v>
+        <v>507190505.174619</v>
       </c>
       <c r="G148">
-        <v>93.5</v>
+        <v>24.5</v>
       </c>
       <c r="H148">
-        <v>651</v>
+        <v>537.5</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="2">
-        <v>44250.375</v>
+        <v>44264.375</v>
       </c>
       <c r="B149">
-        <v>645</v>
+        <v>542</v>
       </c>
       <c r="C149">
-        <v>649</v>
+        <v>557</v>
       </c>
       <c r="D149">
-        <v>437</v>
+        <v>540</v>
       </c>
       <c r="E149">
-        <v>535</v>
+        <v>556</v>
       </c>
       <c r="F149">
-        <v>2729322060.303077</v>
+        <v>297297815.9004344</v>
       </c>
       <c r="G149">
-        <v>106</v>
+        <v>8.5</v>
       </c>
       <c r="H149">
-        <v>738.5</v>
+        <v>566.5</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="2">
-        <v>44251.375</v>
+        <v>44265.375</v>
       </c>
       <c r="B150">
-        <v>535</v>
+        <v>556</v>
       </c>
       <c r="C150">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="D150">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="E150">
         <v>533</v>
       </c>
       <c r="F150">
-        <v>965973208.2117872</v>
+        <v>334731144.8082956</v>
       </c>
       <c r="G150">
-        <v>27.5</v>
+        <v>17</v>
       </c>
       <c r="H150">
-        <v>641</v>
+        <v>564.5</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="2">
-        <v>44252.375</v>
+        <v>44266.375</v>
       </c>
       <c r="B151">
         <v>533</v>
       </c>
       <c r="C151">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="D151">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="E151">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="F151">
-        <v>566481170.8643399</v>
+        <v>328653000.9712432</v>
       </c>
       <c r="G151">
-        <v>26.5</v>
+        <v>12.5</v>
       </c>
       <c r="H151">
-        <v>560.5</v>
+        <v>550</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="2">
-        <v>44253.375</v>
+        <v>44267.375</v>
       </c>
       <c r="B152">
+        <v>519</v>
+      </c>
+      <c r="C152">
+        <v>536</v>
+      </c>
+      <c r="D152">
         <v>503</v>
       </c>
-      <c r="C152">
-        <v>518</v>
-      </c>
-      <c r="D152">
-        <v>476</v>
-      </c>
       <c r="E152">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="F152">
-        <v>619865655.8539323</v>
+        <v>409595206.2190251</v>
       </c>
       <c r="G152">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="H152">
-        <v>529.5</v>
+        <v>531.5</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="2">
-        <v>44254.375</v>
+        <v>44268.375</v>
       </c>
       <c r="B153">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="C153">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="D153">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="E153">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="F153">
-        <v>547682296.324013</v>
+        <v>471802650.0069651</v>
       </c>
       <c r="G153">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="H153">
-        <v>519</v>
+        <v>526.5</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="2">
-        <v>44255.375</v>
+        <v>44269.375</v>
       </c>
       <c r="B154">
-        <v>505</v>
+        <v>527</v>
       </c>
       <c r="C154">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="D154">
-        <v>456</v>
+        <v>510</v>
       </c>
       <c r="E154">
-        <v>477</v>
+        <v>511</v>
       </c>
       <c r="F154">
-        <v>469887202.0804736</v>
+        <v>280965927.4943928</v>
       </c>
       <c r="G154">
-        <v>26.5</v>
+        <v>11.5</v>
       </c>
       <c r="H154">
-        <v>522.5</v>
+        <v>543</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="2">
-        <v>44256.375</v>
+        <v>44270.375</v>
       </c>
       <c r="B155">
-        <v>478</v>
+        <v>511</v>
       </c>
       <c r="C155">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="D155">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="E155">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F155">
-        <v>387082296.9551749</v>
+        <v>522383760.2898057</v>
       </c>
       <c r="G155">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="H155">
-        <v>504.5</v>
+        <v>522.5</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="2">
-        <v>44257.375</v>
+        <v>44271.375</v>
       </c>
       <c r="B156">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C156">
-        <v>520</v>
+        <v>639</v>
       </c>
       <c r="D156">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="E156">
-        <v>504</v>
+        <v>534</v>
       </c>
       <c r="F156">
-        <v>356998388.4636351</v>
+        <v>1505909883.414504</v>
       </c>
       <c r="G156">
-        <v>15</v>
+        <v>71.5</v>
       </c>
       <c r="H156">
-        <v>525.5</v>
+        <v>523.5</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="2">
-        <v>44258.375</v>
+        <v>44272.375</v>
       </c>
       <c r="B157">
-        <v>504</v>
+        <v>535</v>
       </c>
       <c r="C157">
-        <v>529</v>
+        <v>562</v>
       </c>
       <c r="D157">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="E157">
-        <v>515</v>
+        <v>547</v>
       </c>
       <c r="F157">
-        <v>429247218.5923851</v>
+        <v>565390823.5359105</v>
       </c>
       <c r="G157">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="H157">
-        <v>519</v>
+        <v>606.5</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="2">
-        <v>44259.375</v>
+        <v>44273.375</v>
       </c>
       <c r="B158">
-        <v>515</v>
+        <v>547</v>
       </c>
       <c r="C158">
+        <v>575</v>
+      </c>
+      <c r="D158">
+        <v>538</v>
+      </c>
+      <c r="E158">
+        <v>545</v>
+      </c>
+      <c r="F158">
+        <v>505361636.7602889</v>
+      </c>
+      <c r="G158">
+        <v>18.5</v>
+      </c>
+      <c r="H158">
         <v>570</v>
-      </c>
-      <c r="D158">
-        <v>504</v>
-      </c>
-      <c r="E158">
-        <v>561</v>
-      </c>
-      <c r="F158">
-        <v>743267849.4611384</v>
-      </c>
-      <c r="G158">
-        <v>33</v>
-      </c>
-      <c r="H158">
-        <v>530.5</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="2">
-        <v>44260.375</v>
+        <v>44274.375</v>
       </c>
       <c r="B159">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="C159">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="D159">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="E159">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="F159">
-        <v>392203212.9217858</v>
+        <v>334147731.8255655</v>
       </c>
       <c r="G159">
-        <v>20.5</v>
+        <v>12</v>
       </c>
       <c r="H159">
-        <v>594</v>
+        <v>563.5</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="2">
-        <v>44261.375</v>
+        <v>44275.375</v>
       </c>
       <c r="B160">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="C160">
-        <v>545</v>
+        <v>650</v>
       </c>
       <c r="D160">
-        <v>520</v>
+        <v>544</v>
       </c>
       <c r="E160">
-        <v>534</v>
+        <v>614</v>
       </c>
       <c r="F160">
-        <v>244990533.2190517</v>
+        <v>1071939875.965292</v>
       </c>
       <c r="G160">
-        <v>12.5</v>
+        <v>53</v>
       </c>
       <c r="H160">
-        <v>549.5</v>
+        <v>557</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="2">
-        <v>44262.375</v>
+        <v>44276.375</v>
       </c>
       <c r="B161">
-        <v>534</v>
+        <v>613</v>
       </c>
       <c r="C161">
-        <v>538</v>
+        <v>641</v>
       </c>
       <c r="D161">
-        <v>527</v>
+        <v>582</v>
       </c>
       <c r="E161">
-        <v>532</v>
+        <v>604</v>
       </c>
       <c r="F161">
-        <v>197647366.3689812</v>
+        <v>616555999.9322073</v>
       </c>
       <c r="G161">
-        <v>5.5</v>
+        <v>29.5</v>
       </c>
       <c r="H161">
-        <v>546.5</v>
+        <v>666</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="2">
-        <v>44263.375</v>
+        <v>44277.375</v>
       </c>
       <c r="B162">
-        <v>532</v>
+        <v>603</v>
       </c>
       <c r="C162">
-        <v>576</v>
+        <v>708</v>
       </c>
       <c r="D162">
-        <v>527</v>
+        <v>588</v>
       </c>
       <c r="E162">
-        <v>542</v>
+        <v>650</v>
       </c>
       <c r="F162">
-        <v>507190505.174619</v>
+        <v>1487312066.345499</v>
       </c>
       <c r="G162">
-        <v>24.5</v>
+        <v>60</v>
       </c>
       <c r="H162">
-        <v>537.5</v>
+        <v>632.5</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="2">
-        <v>44264.375</v>
+        <v>44278.375</v>
       </c>
       <c r="B163">
-        <v>542</v>
+        <v>650</v>
       </c>
       <c r="C163">
-        <v>557</v>
+        <v>717</v>
       </c>
       <c r="D163">
-        <v>540</v>
+        <v>646</v>
       </c>
       <c r="E163">
-        <v>556</v>
+        <v>663</v>
       </c>
       <c r="F163">
-        <v>297297815.9004344</v>
+        <v>926654670.3622696</v>
       </c>
       <c r="G163">
-        <v>8.5</v>
+        <v>35.5</v>
       </c>
       <c r="H163">
-        <v>566.5</v>
+        <v>710</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="2">
-        <v>44265.375</v>
+        <v>44279.375</v>
       </c>
       <c r="B164">
-        <v>556</v>
+        <v>663</v>
       </c>
       <c r="C164">
-        <v>559</v>
+        <v>678</v>
       </c>
       <c r="D164">
-        <v>525</v>
+        <v>578</v>
       </c>
       <c r="E164">
-        <v>533</v>
+        <v>595</v>
       </c>
       <c r="F164">
-        <v>334731144.8082956</v>
+        <v>619903202.0598662</v>
       </c>
       <c r="G164">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="H164">
-        <v>564.5</v>
+        <v>698.5</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="2">
-        <v>44266.375</v>
+        <v>44280.375</v>
       </c>
       <c r="B165">
-        <v>533</v>
+        <v>595</v>
       </c>
       <c r="C165">
-        <v>536</v>
+        <v>639</v>
       </c>
       <c r="D165">
-        <v>511</v>
+        <v>564</v>
       </c>
       <c r="E165">
-        <v>519</v>
+        <v>630</v>
       </c>
       <c r="F165">
-        <v>328653000.9712432</v>
+        <v>702003162.7944013</v>
       </c>
       <c r="G165">
-        <v>12.5</v>
+        <v>37.5</v>
       </c>
       <c r="H165">
-        <v>550</v>
+        <v>645</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="2">
-        <v>44267.375</v>
+        <v>44281.375</v>
       </c>
       <c r="B166">
-        <v>519</v>
+        <v>631</v>
       </c>
       <c r="C166">
-        <v>536</v>
+        <v>692</v>
       </c>
       <c r="D166">
-        <v>503</v>
+        <v>629</v>
       </c>
       <c r="E166">
-        <v>510</v>
+        <v>674</v>
       </c>
       <c r="F166">
-        <v>409595206.2190251</v>
+        <v>570807287.47227</v>
       </c>
       <c r="G166">
-        <v>16.5</v>
+        <v>31.5</v>
       </c>
       <c r="H166">
-        <v>531.5</v>
+        <v>668.5</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="2">
-        <v>44268.375</v>
+        <v>44282.375</v>
       </c>
       <c r="B167">
-        <v>510</v>
+        <v>674</v>
       </c>
       <c r="C167">
-        <v>537</v>
+        <v>687</v>
       </c>
       <c r="D167">
-        <v>505</v>
+        <v>646</v>
       </c>
       <c r="E167">
-        <v>528</v>
+        <v>653</v>
       </c>
       <c r="F167">
-        <v>471802650.0069651</v>
+        <v>341590272.3058129</v>
       </c>
       <c r="G167">
-        <v>16</v>
+        <v>20.5</v>
       </c>
       <c r="H167">
-        <v>526.5</v>
+        <v>705.5</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="2">
-        <v>44269.375</v>
+        <v>44283.375</v>
       </c>
       <c r="B168">
-        <v>527</v>
+        <v>652</v>
       </c>
       <c r="C168">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="D168">
-        <v>510</v>
+        <v>647</v>
       </c>
       <c r="E168">
-        <v>511</v>
+        <v>658</v>
       </c>
       <c r="F168">
-        <v>280965927.4943928</v>
+        <v>260796596.9338401</v>
       </c>
       <c r="G168">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="H168">
-        <v>543</v>
+        <v>672.5</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="2">
-        <v>44270.375</v>
+        <v>44284.375</v>
       </c>
       <c r="B169">
-        <v>511</v>
+        <v>658</v>
       </c>
       <c r="C169">
-        <v>521</v>
+        <v>683</v>
       </c>
       <c r="D169">
-        <v>484</v>
+        <v>653</v>
       </c>
       <c r="E169">
-        <v>505</v>
+        <v>674</v>
       </c>
       <c r="F169">
-        <v>522383760.2898057</v>
+        <v>340853999.4862526</v>
       </c>
       <c r="G169">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="H169">
-        <v>522.5</v>
+        <v>668</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="2">
-        <v>44271.375</v>
+        <v>44285.375</v>
       </c>
       <c r="B170">
-        <v>505</v>
+        <v>674</v>
       </c>
       <c r="C170">
-        <v>639</v>
+        <v>703</v>
       </c>
       <c r="D170">
-        <v>496</v>
+        <v>670</v>
       </c>
       <c r="E170">
-        <v>534</v>
+        <v>678</v>
       </c>
       <c r="F170">
-        <v>1505909883.414504</v>
+        <v>390203911.4908014</v>
       </c>
       <c r="G170">
-        <v>71.5</v>
+        <v>16.5</v>
       </c>
       <c r="H170">
-        <v>523.5</v>
+        <v>689</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="2">
-        <v>44272.375</v>
+        <v>44286.375</v>
       </c>
       <c r="B171">
-        <v>535</v>
+        <v>678</v>
       </c>
       <c r="C171">
-        <v>562</v>
+        <v>710</v>
       </c>
       <c r="D171">
-        <v>516</v>
+        <v>640</v>
       </c>
       <c r="E171">
-        <v>547</v>
+        <v>693</v>
       </c>
       <c r="F171">
-        <v>565390823.5359105</v>
+        <v>556786820.7770562</v>
       </c>
       <c r="G171">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H171">
-        <v>606.5</v>
+        <v>694.5</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="2">
-        <v>44273.375</v>
+        <v>44287.375</v>
       </c>
       <c r="B172">
-        <v>547</v>
+        <v>692</v>
       </c>
       <c r="C172">
-        <v>575</v>
+        <v>724</v>
       </c>
       <c r="D172">
-        <v>538</v>
+        <v>675</v>
       </c>
       <c r="E172">
-        <v>545</v>
+        <v>708</v>
       </c>
       <c r="F172">
-        <v>505361636.7602889</v>
+        <v>641057027.5002974</v>
       </c>
       <c r="G172">
-        <v>18.5</v>
+        <v>24.5</v>
       </c>
       <c r="H172">
-        <v>570</v>
+        <v>727</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="2">
-        <v>44274.375</v>
+        <v>44288.375</v>
       </c>
       <c r="B173">
-        <v>545</v>
+        <v>708</v>
       </c>
       <c r="C173">
-        <v>558</v>
+        <v>763</v>
       </c>
       <c r="D173">
-        <v>534</v>
+        <v>700</v>
       </c>
       <c r="E173">
-        <v>545</v>
+        <v>761</v>
       </c>
       <c r="F173">
-        <v>334147731.8255655</v>
+        <v>766801448.7611341</v>
       </c>
       <c r="G173">
-        <v>12</v>
+        <v>31.5</v>
       </c>
       <c r="H173">
-        <v>563.5</v>
+        <v>732.5</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="2">
-        <v>44275.375</v>
+        <v>44289.375</v>
       </c>
       <c r="B174">
-        <v>545</v>
+        <v>762</v>
       </c>
       <c r="C174">
-        <v>650</v>
+        <v>826</v>
       </c>
       <c r="D174">
-        <v>544</v>
+        <v>724</v>
       </c>
       <c r="E174">
-        <v>614</v>
+        <v>733</v>
       </c>
       <c r="F174">
-        <v>1071939875.965292</v>
+        <v>919503587.8202106</v>
       </c>
       <c r="G174">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H174">
-        <v>557</v>
+        <v>793.5</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="2">
-        <v>44276.375</v>
+        <v>44290.375</v>
       </c>
       <c r="B175">
-        <v>613</v>
+        <v>733</v>
       </c>
       <c r="C175">
-        <v>641</v>
+        <v>808</v>
       </c>
       <c r="D175">
-        <v>582</v>
+        <v>722</v>
       </c>
       <c r="E175">
-        <v>604</v>
+        <v>807</v>
       </c>
       <c r="F175">
-        <v>616555999.9322073</v>
+        <v>491584797.3222207</v>
       </c>
       <c r="G175">
-        <v>29.5</v>
+        <v>43</v>
       </c>
       <c r="H175">
-        <v>666</v>
+        <v>784</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="2">
-        <v>44277.375</v>
+        <v>44291.375</v>
       </c>
       <c r="B176">
-        <v>603</v>
+        <v>806</v>
       </c>
       <c r="C176">
-        <v>708</v>
+        <v>1270</v>
       </c>
       <c r="D176">
-        <v>588</v>
+        <v>798</v>
       </c>
       <c r="E176">
-        <v>650</v>
+        <v>1240</v>
       </c>
       <c r="F176">
-        <v>1487312066.345499</v>
+        <v>3104975485.962934</v>
       </c>
       <c r="G176">
-        <v>60</v>
+        <v>236</v>
       </c>
       <c r="H176">
-        <v>632.5</v>
+        <v>849</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="2">
-        <v>44278.375</v>
+        <v>44292.375</v>
       </c>
       <c r="B177">
-        <v>650</v>
+        <v>1245</v>
       </c>
       <c r="C177">
-        <v>717</v>
+        <v>1495</v>
       </c>
       <c r="D177">
-        <v>646</v>
+        <v>1065</v>
       </c>
       <c r="E177">
-        <v>663</v>
+        <v>1475</v>
       </c>
       <c r="F177">
-        <v>926654670.3622696</v>
+        <v>2834473174.037168</v>
       </c>
       <c r="G177">
-        <v>35.5</v>
+        <v>215</v>
       </c>
       <c r="H177">
-        <v>710</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="2">
-        <v>44279.375</v>
+        <v>44293.375</v>
       </c>
       <c r="B178">
-        <v>663</v>
+        <v>1475</v>
       </c>
       <c r="C178">
-        <v>678</v>
+        <v>1535</v>
       </c>
       <c r="D178">
-        <v>578</v>
+        <v>1035</v>
       </c>
       <c r="E178">
-        <v>595</v>
+        <v>1190</v>
       </c>
       <c r="F178">
-        <v>619903202.0598662</v>
+        <v>2281956290.323523</v>
       </c>
       <c r="G178">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="H178">
-        <v>698.5</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="2">
-        <v>44280.375</v>
+        <v>44294.375</v>
       </c>
       <c r="B179">
-        <v>595</v>
+        <v>1195</v>
       </c>
       <c r="C179">
-        <v>639</v>
+        <v>1395</v>
       </c>
       <c r="D179">
-        <v>564</v>
+        <v>1110</v>
       </c>
       <c r="E179">
-        <v>630</v>
+        <v>1370</v>
       </c>
       <c r="F179">
-        <v>702003162.7944013</v>
+        <v>1042469198.946621</v>
       </c>
       <c r="G179">
-        <v>37.5</v>
+        <v>142.5</v>
       </c>
       <c r="H179">
-        <v>645</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="2">
-        <v>44281.375</v>
+        <v>44295.375</v>
       </c>
       <c r="B180">
-        <v>631</v>
+        <v>1375</v>
       </c>
       <c r="C180">
-        <v>692</v>
+        <v>1415</v>
       </c>
       <c r="D180">
-        <v>629</v>
+        <v>1255</v>
       </c>
       <c r="E180">
-        <v>674</v>
+        <v>1335</v>
       </c>
       <c r="F180">
-        <v>570807287.47227</v>
+        <v>684351394.2875949</v>
       </c>
       <c r="G180">
-        <v>31.5</v>
+        <v>80</v>
       </c>
       <c r="H180">
-        <v>668.5</v>
+        <v>1517.5</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="2">
-        <v>44282.375</v>
+        <v>44296.375</v>
       </c>
       <c r="B181">
-        <v>674</v>
+        <v>1335</v>
       </c>
       <c r="C181">
-        <v>687</v>
+        <v>1830</v>
       </c>
       <c r="D181">
-        <v>646</v>
+        <v>1315</v>
       </c>
       <c r="E181">
-        <v>653</v>
+        <v>1805</v>
       </c>
       <c r="F181">
-        <v>341590272.3058129</v>
+        <v>2124907999.392786</v>
       </c>
       <c r="G181">
-        <v>20.5</v>
+        <v>257.5</v>
       </c>
       <c r="H181">
-        <v>705.5</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="2">
-        <v>44283.375</v>
+        <v>44297.375</v>
       </c>
       <c r="B182">
-        <v>652</v>
+        <v>1805</v>
       </c>
       <c r="C182">
-        <v>667</v>
+        <v>1965</v>
       </c>
       <c r="D182">
-        <v>647</v>
+        <v>1705</v>
       </c>
       <c r="E182">
-        <v>658</v>
+        <v>1770</v>
       </c>
       <c r="F182">
-        <v>260796596.9338401</v>
+        <v>1647665183.951991</v>
       </c>
       <c r="G182">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="H182">
-        <v>672.5</v>
+        <v>2062.5</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="2">
-        <v>44284.375</v>
+        <v>44298.375</v>
       </c>
       <c r="B183">
-        <v>658</v>
+        <v>1775</v>
       </c>
       <c r="C183">
-        <v>683</v>
+        <v>1935</v>
       </c>
       <c r="D183">
-        <v>653</v>
+        <v>1705</v>
       </c>
       <c r="E183">
-        <v>674</v>
+        <v>1920</v>
       </c>
       <c r="F183">
-        <v>340853999.4862526</v>
+        <v>716711786.3092784</v>
       </c>
       <c r="G183">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="H183">
-        <v>668</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="2">
-        <v>44285.375</v>
+        <v>44299.375</v>
       </c>
       <c r="B184">
-        <v>674</v>
+        <v>1920</v>
       </c>
       <c r="C184">
-        <v>703</v>
+        <v>2400</v>
       </c>
       <c r="D184">
-        <v>670</v>
+        <v>1845</v>
       </c>
       <c r="E184">
-        <v>678</v>
+        <v>2275</v>
       </c>
       <c r="F184">
-        <v>390203911.4908014</v>
+        <v>1727811370.415829</v>
       </c>
       <c r="G184">
-        <v>16.5</v>
+        <v>277.5</v>
       </c>
       <c r="H184">
-        <v>689</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="2">
-        <v>44286.375</v>
+        <v>44300.375</v>
       </c>
       <c r="B185">
-        <v>678</v>
+        <v>2270</v>
       </c>
       <c r="C185">
-        <v>710</v>
+        <v>2495</v>
       </c>
       <c r="D185">
-        <v>640</v>
+        <v>2035</v>
       </c>
       <c r="E185">
-        <v>693</v>
+        <v>2335</v>
       </c>
       <c r="F185">
-        <v>556786820.7770562</v>
+        <v>1622195290.196533</v>
       </c>
       <c r="G185">
-        <v>35</v>
+        <v>230</v>
       </c>
       <c r="H185">
-        <v>694.5</v>
+        <v>2547.5</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="2">
-        <v>44287.375</v>
+        <v>44301.375</v>
       </c>
       <c r="B186">
-        <v>692</v>
+        <v>2335</v>
       </c>
       <c r="C186">
-        <v>724</v>
+        <v>2390</v>
       </c>
       <c r="D186">
-        <v>675</v>
+        <v>2100</v>
       </c>
       <c r="E186">
-        <v>708</v>
+        <v>2220</v>
       </c>
       <c r="F186">
-        <v>641057027.5002974</v>
+        <v>720120367.5512401</v>
       </c>
       <c r="G186">
-        <v>24.5</v>
+        <v>145</v>
       </c>
       <c r="H186">
-        <v>727</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="2">
-        <v>44288.375</v>
+        <v>44302.375</v>
       </c>
       <c r="B187">
-        <v>708</v>
+        <v>2220</v>
       </c>
       <c r="C187">
-        <v>763</v>
+        <v>2345</v>
       </c>
       <c r="D187">
-        <v>700</v>
+        <v>1910</v>
       </c>
       <c r="E187">
-        <v>761</v>
+        <v>2025</v>
       </c>
       <c r="F187">
-        <v>766801448.7611341</v>
+        <v>1388479404.629141</v>
       </c>
       <c r="G187">
-        <v>31.5</v>
+        <v>217.5</v>
       </c>
       <c r="H187">
-        <v>732.5</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="2">
-        <v>44289.375</v>
+        <v>44303.375</v>
       </c>
       <c r="B188">
-        <v>762</v>
+        <v>2030</v>
       </c>
       <c r="C188">
-        <v>826</v>
+        <v>2210</v>
       </c>
       <c r="D188">
-        <v>724</v>
+        <v>1985</v>
       </c>
       <c r="E188">
-        <v>733</v>
+        <v>2005</v>
       </c>
       <c r="F188">
-        <v>919503587.8202106</v>
+        <v>767052510.9625119</v>
       </c>
       <c r="G188">
-        <v>51</v>
+        <v>112.5</v>
       </c>
       <c r="H188">
-        <v>793.5</v>
+        <v>2247.5</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="2">
-        <v>44290.375</v>
+        <v>44304.375</v>
       </c>
       <c r="B189">
-        <v>733</v>
+        <v>2005</v>
       </c>
       <c r="C189">
-        <v>808</v>
+        <v>2030</v>
       </c>
       <c r="D189">
-        <v>722</v>
+        <v>1565</v>
       </c>
       <c r="E189">
-        <v>807</v>
+        <v>1895</v>
       </c>
       <c r="F189">
-        <v>491584797.3222207</v>
+        <v>2095184919.304034</v>
       </c>
       <c r="G189">
-        <v>43</v>
+        <v>232.5</v>
       </c>
       <c r="H189">
-        <v>784</v>
+        <v>2117.5</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="2">
-        <v>44291.375</v>
+        <v>44305.375</v>
       </c>
       <c r="B190">
-        <v>806</v>
+        <v>1900</v>
       </c>
       <c r="C190">
-        <v>1270</v>
+        <v>1985</v>
       </c>
       <c r="D190">
-        <v>798</v>
+        <v>1655</v>
       </c>
       <c r="E190">
-        <v>1240</v>
+        <v>1690</v>
       </c>
       <c r="F190">
-        <v>3104975485.962934</v>
+        <v>1361248716.138495</v>
       </c>
       <c r="G190">
-        <v>236</v>
+        <v>165</v>
       </c>
       <c r="H190">
-        <v>849</v>
+        <v>2132.5</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="2">
-        <v>44292.375</v>
+        <v>44306.375</v>
       </c>
       <c r="B191">
-        <v>1245</v>
+        <v>1695</v>
       </c>
       <c r="C191">
-        <v>1495</v>
+        <v>1800</v>
       </c>
       <c r="D191">
-        <v>1065</v>
+        <v>1455</v>
       </c>
       <c r="E191">
-        <v>1475</v>
+        <v>1725</v>
       </c>
       <c r="F191">
-        <v>2834473174.037168</v>
+        <v>1751128419.932108</v>
       </c>
       <c r="G191">
-        <v>215</v>
+        <v>172.5</v>
       </c>
       <c r="H191">
-        <v>1481</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="2">
-        <v>44293.375</v>
+        <v>44307.375</v>
       </c>
       <c r="B192">
-        <v>1475</v>
+        <v>1720</v>
       </c>
       <c r="C192">
-        <v>1535</v>
+        <v>1840</v>
       </c>
       <c r="D192">
-        <v>1035</v>
+        <v>1615</v>
       </c>
       <c r="E192">
-        <v>1190</v>
+        <v>1635</v>
       </c>
       <c r="F192">
-        <v>2281956290.323523</v>
+        <v>1092941870.126181</v>
       </c>
       <c r="G192">
-        <v>250</v>
+        <v>112.5</v>
       </c>
       <c r="H192">
-        <v>1690</v>
+        <v>1892.5</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="2">
-        <v>44294.375</v>
+        <v>44308.375</v>
       </c>
       <c r="B193">
-        <v>1195</v>
+        <v>1635</v>
       </c>
       <c r="C193">
-        <v>1395</v>
+        <v>1690</v>
       </c>
       <c r="D193">
-        <v>1110</v>
+        <v>1290</v>
       </c>
       <c r="E193">
-        <v>1370</v>
+        <v>1335</v>
       </c>
       <c r="F193">
-        <v>1042469198.946621</v>
+        <v>1795226480.007295</v>
       </c>
       <c r="G193">
-        <v>142.5</v>
+        <v>200</v>
       </c>
       <c r="H193">
-        <v>1445</v>
+        <v>1747.5</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="2">
-        <v>44295.375</v>
+        <v>44309.375</v>
       </c>
       <c r="B194">
-        <v>1375</v>
+        <v>1340</v>
       </c>
       <c r="C194">
-        <v>1415</v>
+        <v>1420</v>
       </c>
       <c r="D194">
-        <v>1255</v>
+        <v>1045</v>
       </c>
       <c r="E194">
-        <v>1335</v>
+        <v>1390</v>
       </c>
       <c r="F194">
-        <v>684351394.2875949</v>
+        <v>2987013664.52332</v>
       </c>
       <c r="G194">
-        <v>80</v>
+        <v>187.5</v>
       </c>
       <c r="H194">
-        <v>1517.5</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="2">
-        <v>44296.375</v>
+        <v>44310.375</v>
       </c>
       <c r="B195">
-        <v>1335</v>
+        <v>1390</v>
       </c>
       <c r="C195">
-        <v>1830</v>
+        <v>1395</v>
       </c>
       <c r="D195">
-        <v>1315</v>
+        <v>1240</v>
       </c>
       <c r="E195">
-        <v>1805</v>
+        <v>1275</v>
       </c>
       <c r="F195">
-        <v>2124907999.392786</v>
+        <v>1035477972.078951</v>
       </c>
       <c r="G195">
-        <v>257.5</v>
+        <v>77.5</v>
       </c>
       <c r="H195">
-        <v>1415</v>
+        <v>1577.5</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="2">
-        <v>44297.375</v>
+        <v>44311.375</v>
       </c>
       <c r="B196">
-        <v>1805</v>
+        <v>1280</v>
       </c>
       <c r="C196">
-        <v>1965</v>
+        <v>1410</v>
       </c>
       <c r="D196">
-        <v>1705</v>
+        <v>1155</v>
       </c>
       <c r="E196">
-        <v>1770</v>
+        <v>1260</v>
       </c>
       <c r="F196">
-        <v>1647665183.951991</v>
+        <v>1105157531.06521</v>
       </c>
       <c r="G196">
-        <v>130</v>
+        <v>127.5</v>
       </c>
       <c r="H196">
-        <v>2062.5</v>
+        <v>1357.5</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="2">
-        <v>44298.375</v>
+        <v>44312.375</v>
       </c>
       <c r="B197">
-        <v>1775</v>
+        <v>1265</v>
       </c>
       <c r="C197">
-        <v>1935</v>
+        <v>1630</v>
       </c>
       <c r="D197">
-        <v>1705</v>
+        <v>1230</v>
       </c>
       <c r="E197">
-        <v>1920</v>
+        <v>1615</v>
       </c>
       <c r="F197">
-        <v>716711786.3092784</v>
+        <v>1658184783.299813</v>
       </c>
       <c r="G197">
-        <v>115</v>
+        <v>200</v>
       </c>
       <c r="H197">
-        <v>1905</v>
+        <v>1392.5</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="2">
-        <v>44299.375</v>
+        <v>44313.375</v>
       </c>
       <c r="B198">
-        <v>1920</v>
+        <v>1615</v>
       </c>
       <c r="C198">
-        <v>2400</v>
+        <v>1750</v>
       </c>
       <c r="D198">
-        <v>1845</v>
+        <v>1575</v>
       </c>
       <c r="E198">
-        <v>2275</v>
+        <v>1650</v>
       </c>
       <c r="F198">
-        <v>1727811370.415829</v>
+        <v>1479053086.39225</v>
       </c>
       <c r="G198">
-        <v>277.5</v>
+        <v>87.5</v>
       </c>
       <c r="H198">
-        <v>2035</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="2">
-        <v>44300.375</v>
+        <v>44314.375</v>
       </c>
       <c r="B199">
-        <v>2270</v>
+        <v>1650</v>
       </c>
       <c r="C199">
-        <v>2495</v>
+        <v>1705</v>
       </c>
       <c r="D199">
-        <v>2035</v>
+        <v>1515</v>
       </c>
       <c r="E199">
-        <v>2335</v>
+        <v>1590</v>
       </c>
       <c r="F199">
-        <v>1622195290.196533</v>
+        <v>1158909970.132206</v>
       </c>
       <c r="G199">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="H199">
-        <v>2547.5</v>
+        <v>1737.5</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="2">
-        <v>44301.375</v>
+        <v>44315.375</v>
       </c>
       <c r="B200">
-        <v>2335</v>
+        <v>1585</v>
       </c>
       <c r="C200">
-        <v>2390</v>
+        <v>1680</v>
       </c>
       <c r="D200">
-        <v>2100</v>
+        <v>1530</v>
       </c>
       <c r="E200">
-        <v>2220</v>
+        <v>1660</v>
       </c>
       <c r="F200">
-        <v>720120367.5512401</v>
+        <v>773172796.0092887</v>
       </c>
       <c r="G200">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="H200">
-        <v>2565</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="2">
-        <v>44302.375</v>
+        <v>44316.375</v>
       </c>
       <c r="B201">
-        <v>2220</v>
+        <v>1660</v>
       </c>
       <c r="C201">
-        <v>2345</v>
+        <v>1895</v>
       </c>
       <c r="D201">
-        <v>2110</v>
+        <v>1640</v>
       </c>
       <c r="E201">
-        <v>2155</v>
+        <v>1890</v>
       </c>
       <c r="F201">
-        <v>357571730.654548</v>
+        <v>895221295.447063</v>
       </c>
       <c r="G201">
-        <v>117.5</v>
+        <v>127.5</v>
       </c>
       <c r="H201">
-        <v>2365</v>
+        <v>1735</v>
       </c>
     </row>
   </sheetData>
